--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D76F2A-0662-45BA-9B42-FF426592732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A230C3-3A29-4FCC-9B3B-2D90A7ABDDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A230C3-3A29-4FCC-9B3B-2D90A7ABDDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8557385D-87E0-451D-81F2-90CF9C45B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8557385D-87E0-451D-81F2-90CF9C45B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A5EF6E-AEB0-4222-98D1-F73F1BF35AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -316,6 +316,48 @@
   </si>
   <si>
     <t>Panthers ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunder Under 237.5 </t>
+  </si>
+  <si>
+    <t>Nets ML</t>
+  </si>
+  <si>
+    <t>Lightning ML</t>
+  </si>
+  <si>
+    <t>Canadians ML</t>
+  </si>
+  <si>
+    <t>Sabres Under 6.5</t>
+  </si>
+  <si>
+    <t>Ducks ML</t>
+  </si>
+  <si>
+    <t>Pelicans ML</t>
+  </si>
+  <si>
+    <t>Hurricanes ML</t>
+  </si>
+  <si>
+    <t>Kings ML</t>
+  </si>
+  <si>
+    <t>Kings Under 6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canucks Over 6  </t>
+  </si>
+  <si>
+    <t>Lightning Over 6</t>
+  </si>
+  <si>
+    <t>Bruins Over 6.5</t>
+  </si>
+  <si>
+    <t>76ers Over 237</t>
   </si>
 </sst>
 </file>
@@ -703,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AA93"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +771,7 @@
     <col min="21" max="21" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -782,7 +824,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -822,7 +864,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K360)),K2:K360))/250)-1</f>
-        <v>0.97984000000000004</v>
+        <v>1.1614400000000002</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -835,7 +877,7 @@
       </c>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -886,7 +928,7 @@
       </c>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -938,7 +980,7 @@
       </c>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -988,9 +1030,20 @@
         <f t="shared" si="3"/>
         <v>17.7</v>
       </c>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5">
+        <v>1.86</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1040,9 +1093,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1092,9 +1156,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>99</v>
+      </c>
+      <c r="V7">
+        <v>1.9</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1199,7 +1274,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1250,7 +1325,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1301,7 +1376,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1427,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1403,7 +1478,7 @@
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1505,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2844,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G93" si="16">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G104" si="16">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -2945,9 +3020,20 @@
         <f t="shared" ref="K44" si="20">K43+G44</f>
         <v>341.92</v>
       </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
+      <c r="O44" s="1">
+        <v>45314</v>
+      </c>
+      <c r="P44" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" ref="Q44:Q45" si="21">Q43+R44</f>
+        <v>520.3599999999999</v>
+      </c>
+      <c r="R44">
+        <f t="shared" ref="R44:R45" si="22">SUMIF(H43:H168, O44, G43:G168)</f>
+        <v>45.400000000000006</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -2975,12 +3061,23 @@
         <v>250</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:K51" si="21">K44+G45</f>
+        <f t="shared" ref="K45:K51" si="23">K44+G45</f>
         <v>363.67</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
+      <c r="O45" s="1">
+        <v>45315</v>
+      </c>
+      <c r="P45" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="21"/>
+        <v>520.3599999999999</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -3008,7 +3105,7 @@
         <v>250</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>348.67</v>
       </c>
       <c r="O46" s="1"/>
@@ -3041,7 +3138,7 @@
         <v>250</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>360.67</v>
       </c>
       <c r="O47" s="1"/>
@@ -3074,7 +3171,7 @@
         <v>250</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>373.57</v>
       </c>
       <c r="O48" s="1"/>
@@ -3105,7 +3202,7 @@
         <v>250</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>358.57</v>
       </c>
       <c r="O49" s="1"/>
@@ -3136,7 +3233,7 @@
         <v>250</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>369.07</v>
       </c>
       <c r="O50" s="1"/>
@@ -3167,7 +3264,7 @@
         <v>250</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>354.07</v>
       </c>
       <c r="O51" s="1"/>
@@ -3198,7 +3295,7 @@
         <v>250</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:K59" si="22">K51+G52</f>
+        <f t="shared" ref="K52:K59" si="24">K51+G52</f>
         <v>339.07</v>
       </c>
       <c r="O52" s="1"/>
@@ -3229,7 +3326,7 @@
         <v>250</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>324.07</v>
       </c>
     </row>
@@ -3257,7 +3354,7 @@
         <v>250</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>348.07</v>
       </c>
     </row>
@@ -3285,7 +3382,7 @@
         <v>250</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>361.57</v>
       </c>
     </row>
@@ -3313,7 +3410,7 @@
         <v>250</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>379.57</v>
       </c>
     </row>
@@ -3341,7 +3438,7 @@
         <v>250</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>394.57</v>
       </c>
     </row>
@@ -3369,7 +3466,7 @@
         <v>250</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>415.87</v>
       </c>
     </row>
@@ -3397,7 +3494,7 @@
         <v>250</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3424,7 +3521,7 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="23">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="25">K59+G60</f>
         <v>441.37</v>
       </c>
     </row>
@@ -3452,7 +3549,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>461.37</v>
       </c>
     </row>
@@ -3480,7 +3577,7 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3508,7 +3605,7 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>421.37</v>
       </c>
     </row>
@@ -3536,7 +3633,7 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>391.37</v>
       </c>
     </row>
@@ -3564,7 +3661,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="24">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="26">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3592,7 +3689,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3620,7 +3717,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>420.17</v>
       </c>
     </row>
@@ -3648,7 +3745,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>461.41</v>
       </c>
     </row>
@@ -3676,7 +3773,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>441.41</v>
       </c>
     </row>
@@ -3704,7 +3801,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -3732,7 +3829,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K75" si="25">K70+G71</f>
+        <f t="shared" ref="K71:K75" si="27">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -3760,7 +3857,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>443.41</v>
       </c>
     </row>
@@ -3788,7 +3885,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -3816,7 +3913,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -3844,7 +3941,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -3872,7 +3969,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" ref="K76:K77" si="26">K75+G76</f>
+        <f t="shared" ref="K76:K77" si="28">K75+G76</f>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -3900,7 +3997,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>455.21000000000004</v>
       </c>
     </row>
@@ -3928,7 +4025,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" ref="K78:K83" si="27">K77+G78</f>
+        <f t="shared" ref="K78:K83" si="29">K77+G78</f>
         <v>471.21000000000004</v>
       </c>
     </row>
@@ -3956,7 +4053,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>451.21000000000004</v>
       </c>
     </row>
@@ -3984,7 +4081,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4012,7 +4109,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4040,7 +4137,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4068,7 +4165,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>448.51000000000005</v>
       </c>
     </row>
@@ -4096,7 +4193,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" ref="K84" si="28">K83+G84</f>
+        <f t="shared" ref="K84" si="30">K83+G84</f>
         <v>453.01000000000005</v>
       </c>
     </row>
@@ -4208,7 +4305,7 @@
         <v>250</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" ref="K88:K93" si="29">K87+G88</f>
+        <f t="shared" ref="K88:K93" si="31">K87+G88</f>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -4236,7 +4333,7 @@
         <v>250</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>462.76000000000005</v>
       </c>
     </row>
@@ -4264,7 +4361,7 @@
         <v>250</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>457.76000000000005</v>
       </c>
     </row>
@@ -4292,7 +4389,7 @@
         <v>250</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>452.76000000000005</v>
       </c>
     </row>
@@ -4320,7 +4417,7 @@
         <v>250</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>469.96000000000004</v>
       </c>
     </row>
@@ -4348,8 +4445,316 @@
         <v>250</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>494.96000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94">
+        <v>1.9</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="16"/>
+        <v>4.5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J94">
+        <v>251</v>
+      </c>
+      <c r="K94" s="6">
+        <f t="shared" ref="K94:K104" si="32">K93+G94</f>
+        <v>499.46000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="16"/>
+        <v>-5</v>
+      </c>
+      <c r="H95" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J95">
+        <v>252</v>
+      </c>
+      <c r="K95" s="6">
+        <f t="shared" si="32"/>
+        <v>494.46000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96">
+        <v>1.95</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="H96" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J96">
+        <v>253</v>
+      </c>
+      <c r="K96" s="6">
+        <f t="shared" si="32"/>
+        <v>513.46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97">
+        <v>2.25</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="16"/>
+        <v>-20</v>
+      </c>
+      <c r="H97" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J97">
+        <v>254</v>
+      </c>
+      <c r="K97" s="6">
+        <f t="shared" si="32"/>
+        <v>493.46000000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98">
+        <v>1.9</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="H98" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J98">
+        <v>255</v>
+      </c>
+      <c r="K98" s="6">
+        <f t="shared" si="32"/>
+        <v>511.46000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99">
+        <v>2.35</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="H99" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J99">
+        <v>256</v>
+      </c>
+      <c r="K99" s="6">
+        <f t="shared" si="32"/>
+        <v>538.46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100">
+        <v>1.38</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="16"/>
+        <v>1.8999999999999995</v>
+      </c>
+      <c r="H100" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J100">
+        <v>257</v>
+      </c>
+      <c r="K100" s="6">
+        <f t="shared" si="32"/>
+        <v>540.36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="H101" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J101">
+        <v>258</v>
+      </c>
+      <c r="K101" s="6">
+        <f t="shared" si="32"/>
+        <v>564.36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102">
+        <v>1.52</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="16"/>
+        <v>-20</v>
+      </c>
+      <c r="H102" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J102">
+        <v>259</v>
+      </c>
+      <c r="K102" s="6">
+        <f t="shared" si="32"/>
+        <v>544.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103">
+        <v>1.86</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="16"/>
+        <v>-20</v>
+      </c>
+      <c r="H103" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J103">
+        <v>260</v>
+      </c>
+      <c r="K103" s="6">
+        <f t="shared" si="32"/>
+        <v>524.36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104">
+        <v>1.8</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="H104" s="1">
+        <v>45314</v>
+      </c>
+      <c r="J104">
+        <v>261</v>
+      </c>
+      <c r="K104" s="6">
+        <f t="shared" si="32"/>
+        <v>540.36</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A5EF6E-AEB0-4222-98D1-F73F1BF35AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041ED2BE-E887-4E5B-8F1F-898F9EDEAD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="R44">
         <f t="shared" ref="R44:R45" si="22">SUMIF(H43:H168, O44, G43:G168)</f>
-        <v>45.400000000000006</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -4663,7 +4663,7 @@
         <v>24</v>
       </c>
       <c r="H101" s="1">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="J101">
         <v>258</v>
@@ -4691,7 +4691,7 @@
         <v>-20</v>
       </c>
       <c r="H102" s="1">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="J102">
         <v>259</v>
@@ -4719,7 +4719,7 @@
         <v>-20</v>
       </c>
       <c r="H103" s="1">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="J103">
         <v>260</v>
@@ -4747,7 +4747,7 @@
         <v>16</v>
       </c>
       <c r="H104" s="1">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="J104">
         <v>261</v>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041ED2BE-E887-4E5B-8F1F-898F9EDEAD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4033447A-27DD-4F33-A522-69DFDBDC4881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -358,6 +358,27 @@
   </si>
   <si>
     <t>76ers Over 237</t>
+  </si>
+  <si>
+    <t>Spurs Under 234.5</t>
+  </si>
+  <si>
+    <t>Sharks ML</t>
+  </si>
+  <si>
+    <t>Devils Over 6.5</t>
+  </si>
+  <si>
+    <t>Lakers Under 243</t>
+  </si>
+  <si>
+    <t>Magic Under 227.5</t>
+  </si>
+  <si>
+    <t>Columbus ML</t>
+  </si>
+  <si>
+    <t>RedWings Over 7</t>
   </si>
 </sst>
 </file>
@@ -745,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AB121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,8 +884,8 @@
         <v>235</v>
       </c>
       <c r="M2" s="7" cm="1">
-        <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K360)),K2:K360))/250)-1</f>
-        <v>1.1614400000000002</v>
+        <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
+        <v>0.78464000000000023</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -923,7 +944,7 @@
         <v>251.62</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R42" si="3">SUMIF(H2:H127, O3, G2:G127)</f>
+        <f t="shared" ref="R3:R49" si="3">SUMIF(H2:H126, O3, G2:G126)</f>
         <v>1.6199999999999974</v>
       </c>
       <c r="AA3" s="1"/>
@@ -2919,7 +2940,7 @@
         <v>16</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G104" si="16">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G105" si="16">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -2987,7 +3008,7 @@
         <v>474.95999999999992</v>
       </c>
       <c r="R43">
-        <f>SUMIF(H42:H167, O43, G42:G167)</f>
+        <f t="shared" si="3"/>
         <v>52.95</v>
       </c>
     </row>
@@ -3031,7 +3052,7 @@
         <v>520.3599999999999</v>
       </c>
       <c r="R44">
-        <f t="shared" ref="R44:R45" si="22">SUMIF(H43:H168, O44, G43:G168)</f>
+        <f t="shared" si="3"/>
         <v>45.4</v>
       </c>
     </row>
@@ -3061,7 +3082,7 @@
         <v>250</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:K51" si="23">K44+G45</f>
+        <f t="shared" ref="K45:K51" si="22">K44+G45</f>
         <v>363.67</v>
       </c>
       <c r="O45" s="1">
@@ -3075,7 +3096,7 @@
         <v>520.3599999999999</v>
       </c>
       <c r="R45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3105,12 +3126,23 @@
         <v>250</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>348.67</v>
       </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
+      <c r="O46" s="1">
+        <v>45316</v>
+      </c>
+      <c r="P46" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" ref="Q46:Q48" si="23">Q45+R46</f>
+        <v>517.55999999999995</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="3"/>
+        <v>-2.7999999999999972</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -3138,12 +3170,23 @@
         <v>250</v>
       </c>
       <c r="K47" s="6">
+        <f t="shared" si="22"/>
+        <v>360.67</v>
+      </c>
+      <c r="O47" s="1">
+        <v>45317</v>
+      </c>
+      <c r="P47" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q47" s="2">
         <f t="shared" si="23"/>
-        <v>360.67</v>
-      </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+        <v>476.55999999999995</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="3"/>
+        <v>-41</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -3171,14 +3214,25 @@
         <v>250</v>
       </c>
       <c r="K48" s="6">
+        <f t="shared" si="22"/>
+        <v>373.57</v>
+      </c>
+      <c r="O48" s="1">
+        <v>45318</v>
+      </c>
+      <c r="P48" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q48" s="2">
         <f t="shared" si="23"/>
-        <v>373.57</v>
-      </c>
-      <c r="O48" s="1"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+        <v>439.15999999999997</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="3"/>
+        <v>-37.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3202,14 +3256,25 @@
         <v>250</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>358.57</v>
       </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O49" s="1">
+        <v>45319</v>
+      </c>
+      <c r="P49" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>Q48+R49</f>
+        <v>428.15999999999997</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="3"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3233,14 +3298,25 @@
         <v>250</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>369.07</v>
       </c>
-      <c r="O50" s="1"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O50" s="1">
+        <v>45320</v>
+      </c>
+      <c r="P50" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q50" s="2">
+        <f>Q49+R50</f>
+        <v>428.15999999999997</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ref="R50" si="24">SUMIF(H49:H173, O50, G49:G173)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3264,14 +3340,25 @@
         <v>250</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>354.07</v>
       </c>
-      <c r="O51" s="1"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O51" s="1">
+        <v>45321</v>
+      </c>
+      <c r="P51" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>Q50+R51</f>
+        <v>455.15999999999997</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ref="R51" si="25">SUMIF(H50:H174, O51, G50:G174)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -3295,14 +3382,25 @@
         <v>250</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:K59" si="24">K51+G52</f>
+        <f t="shared" ref="K52:K59" si="26">K51+G52</f>
         <v>339.07</v>
       </c>
-      <c r="O52" s="1"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O52" s="1">
+        <v>45322</v>
+      </c>
+      <c r="P52" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q52" s="2">
+        <f>Q51+R52</f>
+        <v>446.15999999999997</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ref="R52" si="27">SUMIF(H51:H175, O52, G51:G175)</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -3326,11 +3424,11 @@
         <v>250</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>324.07</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -3354,11 +3452,11 @@
         <v>250</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>348.07</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -3382,11 +3480,11 @@
         <v>250</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>361.57</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -3410,11 +3508,11 @@
         <v>250</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>379.57</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -3438,11 +3536,11 @@
         <v>250</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>394.57</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -3466,11 +3564,11 @@
         <v>250</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>415.87</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -3494,11 +3592,11 @@
         <v>250</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>441.37</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -3521,11 +3619,11 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="25">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="28">K59+G60</f>
         <v>441.37</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -3549,11 +3647,11 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>461.37</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -3577,11 +3675,11 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>441.37</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -3605,11 +3703,11 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>421.37</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -3633,7 +3731,7 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>391.37</v>
       </c>
     </row>
@@ -3661,7 +3759,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="26">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="29">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3689,7 +3787,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3717,7 +3815,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>420.17</v>
       </c>
     </row>
@@ -3745,7 +3843,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>461.41</v>
       </c>
     </row>
@@ -3773,7 +3871,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>441.41</v>
       </c>
     </row>
@@ -3801,7 +3899,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -3829,7 +3927,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K75" si="27">K70+G71</f>
+        <f t="shared" ref="K71:K118" si="30">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -3857,7 +3955,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>443.41</v>
       </c>
     </row>
@@ -3885,7 +3983,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -3913,7 +4011,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -3941,7 +4039,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -3969,7 +4067,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" ref="K76:K77" si="28">K75+G76</f>
+        <f t="shared" si="30"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -3997,7 +4095,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>455.21000000000004</v>
       </c>
     </row>
@@ -4025,7 +4123,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" ref="K78:K83" si="29">K77+G78</f>
+        <f t="shared" si="30"/>
         <v>471.21000000000004</v>
       </c>
     </row>
@@ -4053,7 +4151,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>451.21000000000004</v>
       </c>
     </row>
@@ -4081,7 +4179,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4109,7 +4207,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4137,7 +4235,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4165,7 +4263,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>448.51000000000005</v>
       </c>
     </row>
@@ -4193,7 +4291,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" ref="K84" si="30">K83+G84</f>
+        <f t="shared" si="30"/>
         <v>453.01000000000005</v>
       </c>
     </row>
@@ -4221,8 +4319,8 @@
         <v>250</v>
       </c>
       <c r="K85" s="6">
-        <f>K87+G85</f>
-        <v>422.01000000000005</v>
+        <f t="shared" si="30"/>
+        <v>433.01000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4249,8 +4347,8 @@
         <v>250</v>
       </c>
       <c r="K86" s="6">
-        <f>K84+G86</f>
-        <v>462.01000000000005</v>
+        <f t="shared" si="30"/>
+        <v>442.01000000000005</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4277,8 +4375,8 @@
         <v>250</v>
       </c>
       <c r="K87" s="6">
-        <f>K86+G87</f>
-        <v>442.01000000000005</v>
+        <f t="shared" si="30"/>
+        <v>422.01000000000005</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4305,8 +4403,8 @@
         <v>250</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" ref="K88:K93" si="31">K87+G88</f>
-        <v>458.01000000000005</v>
+        <f t="shared" si="30"/>
+        <v>438.01000000000005</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4333,8 +4431,8 @@
         <v>250</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="31"/>
-        <v>462.76000000000005</v>
+        <f t="shared" si="30"/>
+        <v>442.76000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4361,8 +4459,8 @@
         <v>250</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="31"/>
-        <v>457.76000000000005</v>
+        <f t="shared" si="30"/>
+        <v>437.76000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4389,8 +4487,8 @@
         <v>250</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="31"/>
-        <v>452.76000000000005</v>
+        <f t="shared" si="30"/>
+        <v>432.76000000000005</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4417,8 +4515,8 @@
         <v>250</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="31"/>
-        <v>469.96000000000004</v>
+        <f t="shared" si="30"/>
+        <v>449.96000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4445,8 +4543,8 @@
         <v>250</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="31"/>
-        <v>494.96000000000004</v>
+        <f t="shared" si="30"/>
+        <v>474.96000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4470,11 +4568,11 @@
         <v>45314</v>
       </c>
       <c r="J94">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" ref="K94:K104" si="32">K93+G94</f>
-        <v>499.46000000000004</v>
+        <f t="shared" si="30"/>
+        <v>479.46000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4498,11 +4596,11 @@
         <v>45314</v>
       </c>
       <c r="J95">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="32"/>
-        <v>494.46000000000004</v>
+        <f t="shared" si="30"/>
+        <v>474.46000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4526,11 +4624,11 @@
         <v>45314</v>
       </c>
       <c r="J96">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="32"/>
-        <v>513.46</v>
+        <f t="shared" si="30"/>
+        <v>493.46000000000004</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4554,11 +4652,11 @@
         <v>45314</v>
       </c>
       <c r="J97">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="32"/>
-        <v>493.46000000000004</v>
+        <f t="shared" si="30"/>
+        <v>473.46000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -4582,11 +4680,11 @@
         <v>45314</v>
       </c>
       <c r="J98">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="32"/>
-        <v>511.46000000000004</v>
+        <f t="shared" si="30"/>
+        <v>491.46000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -4610,11 +4708,11 @@
         <v>45314</v>
       </c>
       <c r="J99">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="32"/>
-        <v>538.46</v>
+        <f t="shared" si="30"/>
+        <v>518.46</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -4638,11 +4736,11 @@
         <v>45314</v>
       </c>
       <c r="J100">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="32"/>
-        <v>540.36</v>
+        <f t="shared" si="30"/>
+        <v>520.36</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -4666,11 +4764,11 @@
         <v>45315</v>
       </c>
       <c r="J101">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="32"/>
-        <v>564.36</v>
+        <f t="shared" si="30"/>
+        <v>544.36</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -4694,11 +4792,11 @@
         <v>45315</v>
       </c>
       <c r="J102">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="32"/>
-        <v>544.36</v>
+        <f t="shared" si="30"/>
+        <v>524.36</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -4722,11 +4820,11 @@
         <v>45315</v>
       </c>
       <c r="J103">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="32"/>
-        <v>524.36</v>
+        <f t="shared" si="30"/>
+        <v>504.36</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -4750,11 +4848,487 @@
         <v>45315</v>
       </c>
       <c r="J104">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="32"/>
-        <v>540.36</v>
+        <f t="shared" si="30"/>
+        <v>520.36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105">
+        <v>1.86</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="16"/>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="H105" s="1">
+        <v>45316</v>
+      </c>
+      <c r="J105">
+        <v>250</v>
+      </c>
+      <c r="K105" s="6">
+        <f t="shared" si="30"/>
+        <v>537.56000000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <f t="shared" ref="G106:G121" si="31">IF(F106="Y",(C106*B106)-C106,-C106)</f>
+        <v>-20</v>
+      </c>
+      <c r="H106" s="1">
+        <v>45316</v>
+      </c>
+      <c r="J106">
+        <v>250</v>
+      </c>
+      <c r="K106" s="6">
+        <f t="shared" si="30"/>
+        <v>517.56000000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107">
+        <v>1.66</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <f>IF(F107="Y",(C107*B107)-C107,-C107)</f>
+        <v>-20</v>
+      </c>
+      <c r="H107" s="1">
+        <v>45317</v>
+      </c>
+      <c r="J107">
+        <v>250</v>
+      </c>
+      <c r="K107" s="6">
+        <f t="shared" si="30"/>
+        <v>497.56000000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108">
+        <v>1.66</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <f>IF(F108="Y",(C108*B108)-C108,-C108)</f>
+        <v>-20</v>
+      </c>
+      <c r="H108" s="1">
+        <v>45317</v>
+      </c>
+      <c r="J108">
+        <v>250</v>
+      </c>
+      <c r="K108" s="6">
+        <f t="shared" si="30"/>
+        <v>477.56000000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <f>IF(F109="Y",(C109*B109)-C109,-C109)</f>
+        <v>-10</v>
+      </c>
+      <c r="H109" s="1">
+        <v>45317</v>
+      </c>
+      <c r="J109">
+        <v>250</v>
+      </c>
+      <c r="K109" s="6">
+        <f t="shared" si="30"/>
+        <v>467.56000000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110">
+        <v>1.9</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110">
+        <f>IF(F110="Y",(C110*B110)-C110,-C110)</f>
+        <v>9</v>
+      </c>
+      <c r="H110" s="1">
+        <v>45317</v>
+      </c>
+      <c r="J110">
+        <v>250</v>
+      </c>
+      <c r="K110" s="6">
+        <f t="shared" si="30"/>
+        <v>476.56000000000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="31"/>
+        <v>-20</v>
+      </c>
+      <c r="H111" s="1">
+        <v>45318</v>
+      </c>
+      <c r="J111">
+        <v>250</v>
+      </c>
+      <c r="K111" s="6">
+        <f t="shared" si="30"/>
+        <v>456.56000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112">
+        <v>3.05</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="31"/>
+        <v>-20</v>
+      </c>
+      <c r="H112" s="1">
+        <v>45318</v>
+      </c>
+      <c r="J112">
+        <v>250</v>
+      </c>
+      <c r="K112" s="6">
+        <f t="shared" si="30"/>
+        <v>436.56000000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="31"/>
+        <v>-20</v>
+      </c>
+      <c r="H113" s="1">
+        <v>45318</v>
+      </c>
+      <c r="J113">
+        <v>250</v>
+      </c>
+      <c r="K113" s="6">
+        <f t="shared" si="30"/>
+        <v>416.56000000000006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114">
+        <v>1.8</v>
+      </c>
+      <c r="C114">
+        <v>20</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="31"/>
+        <v>16</v>
+      </c>
+      <c r="H114" s="1">
+        <v>45318</v>
+      </c>
+      <c r="J114">
+        <v>250</v>
+      </c>
+      <c r="K114" s="6">
+        <f t="shared" si="30"/>
+        <v>432.56000000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115">
+        <v>1.83</v>
+      </c>
+      <c r="C115">
+        <v>20</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="31"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H115" s="1">
+        <v>45318</v>
+      </c>
+      <c r="J115">
+        <v>250</v>
+      </c>
+      <c r="K115" s="6">
+        <f t="shared" si="30"/>
+        <v>449.16000000000008</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116">
+        <v>1.9</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+      <c r="H116" s="1">
+        <v>45318</v>
+      </c>
+      <c r="J116">
+        <v>250</v>
+      </c>
+      <c r="K116" s="6">
+        <f t="shared" si="30"/>
+        <v>439.16000000000008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117">
+        <v>1.83</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="31"/>
+        <v>-20</v>
+      </c>
+      <c r="H117" s="1">
+        <v>45319</v>
+      </c>
+      <c r="J117">
+        <v>250</v>
+      </c>
+      <c r="K117" s="6">
+        <f t="shared" si="30"/>
+        <v>419.16000000000008</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118">
+        <v>1.9</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="H118" s="1">
+        <v>45319</v>
+      </c>
+      <c r="J118">
+        <v>250</v>
+      </c>
+      <c r="K118" s="6">
+        <f t="shared" si="30"/>
+        <v>428.16000000000008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119">
+        <v>2.35</v>
+      </c>
+      <c r="C119">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="31"/>
+        <v>27</v>
+      </c>
+      <c r="H119" s="1">
+        <v>45321</v>
+      </c>
+      <c r="J119">
+        <v>250</v>
+      </c>
+      <c r="K119" s="6">
+        <f t="shared" ref="K119" si="32">K118+G119</f>
+        <v>455.16000000000008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120">
+        <v>1.55</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="F120" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
+      <c r="H120" s="1">
+        <v>45322</v>
+      </c>
+      <c r="J120">
+        <v>250</v>
+      </c>
+      <c r="K120" s="6">
+        <f t="shared" ref="K120:K121" si="33">K119+G120</f>
+        <v>466.16000000000008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>106</v>
+      </c>
+      <c r="B121">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="31"/>
+        <v>-20</v>
+      </c>
+      <c r="H121" s="1">
+        <v>45322</v>
+      </c>
+      <c r="J121">
+        <v>250</v>
+      </c>
+      <c r="K121" s="6">
+        <f t="shared" si="33"/>
+        <v>446.16000000000008</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4033447A-27DD-4F33-A522-69DFDBDC4881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014D880D-13B0-45D6-BBF9-5980DFAECB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -379,6 +379,27 @@
   </si>
   <si>
     <t>RedWings Over 7</t>
+  </si>
+  <si>
+    <t>Suns Under 248.5</t>
+  </si>
+  <si>
+    <t>Thunder Under 231.5</t>
+  </si>
+  <si>
+    <t>Rockets ML</t>
+  </si>
+  <si>
+    <t>Wizards ML</t>
+  </si>
+  <si>
+    <t>Clippers ML</t>
+  </si>
+  <si>
+    <t>Clippers Under 227</t>
+  </si>
+  <si>
+    <t>Raptors Under 235</t>
   </si>
 </sst>
 </file>
@@ -766,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AB121"/>
+  <dimension ref="A1:AB128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,7 +906,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.78464000000000023</v>
+        <v>0.72544000000000031</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -3427,6 +3448,20 @@
         <f t="shared" si="26"/>
         <v>324.07</v>
       </c>
+      <c r="O53" s="1">
+        <v>45323</v>
+      </c>
+      <c r="P53" s="2">
+        <v>251</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" ref="Q53:Q56" si="28">Q52+R53</f>
+        <v>426.15999999999997</v>
+      </c>
+      <c r="R53">
+        <f t="shared" ref="R53:R56" si="29">SUMIF(H52:H176, O53, G52:G176)</f>
+        <v>-20</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -3455,6 +3490,20 @@
         <f t="shared" si="26"/>
         <v>348.07</v>
       </c>
+      <c r="O54" s="1">
+        <v>45324</v>
+      </c>
+      <c r="P54" s="2">
+        <v>252</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="28"/>
+        <v>426.15999999999997</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -3483,6 +3532,20 @@
         <f t="shared" si="26"/>
         <v>361.57</v>
       </c>
+      <c r="O55" s="1">
+        <v>45325</v>
+      </c>
+      <c r="P55" s="2">
+        <v>253</v>
+      </c>
+      <c r="Q55" s="2">
+        <f t="shared" si="28"/>
+        <v>426.15999999999997</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -3511,6 +3574,20 @@
         <f t="shared" si="26"/>
         <v>379.57</v>
       </c>
+      <c r="O56" s="1">
+        <v>45326</v>
+      </c>
+      <c r="P56" s="2">
+        <v>254</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="28"/>
+        <v>431.35999999999996</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="29"/>
+        <v>5.2000000000000028</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -3619,7 +3696,7 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="28">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="30">K59+G60</f>
         <v>441.37</v>
       </c>
     </row>
@@ -3647,7 +3724,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>461.37</v>
       </c>
     </row>
@@ -3675,7 +3752,7 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3703,7 +3780,7 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>421.37</v>
       </c>
     </row>
@@ -3731,7 +3808,7 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>391.37</v>
       </c>
     </row>
@@ -3759,7 +3836,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="29">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="31">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3787,7 +3864,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3815,7 +3892,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>420.17</v>
       </c>
     </row>
@@ -3843,7 +3920,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>461.41</v>
       </c>
     </row>
@@ -3871,7 +3948,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>441.41</v>
       </c>
     </row>
@@ -3899,7 +3976,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -3927,7 +4004,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K118" si="30">K70+G71</f>
+        <f t="shared" ref="K71:K118" si="32">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -3955,7 +4032,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>443.41</v>
       </c>
     </row>
@@ -3983,7 +4060,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -4011,7 +4088,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4039,7 +4116,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -4067,7 +4144,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4095,7 +4172,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>455.21000000000004</v>
       </c>
     </row>
@@ -4123,7 +4200,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>471.21000000000004</v>
       </c>
     </row>
@@ -4151,7 +4228,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>451.21000000000004</v>
       </c>
     </row>
@@ -4179,7 +4256,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4207,7 +4284,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4235,7 +4312,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4263,7 +4340,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>448.51000000000005</v>
       </c>
     </row>
@@ -4291,7 +4368,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>453.01000000000005</v>
       </c>
     </row>
@@ -4319,7 +4396,7 @@
         <v>250</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>433.01000000000005</v>
       </c>
     </row>
@@ -4347,7 +4424,7 @@
         <v>250</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>442.01000000000005</v>
       </c>
     </row>
@@ -4375,7 +4452,7 @@
         <v>250</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>422.01000000000005</v>
       </c>
     </row>
@@ -4403,7 +4480,7 @@
         <v>250</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>438.01000000000005</v>
       </c>
     </row>
@@ -4431,7 +4508,7 @@
         <v>250</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>442.76000000000005</v>
       </c>
     </row>
@@ -4459,7 +4536,7 @@
         <v>250</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>437.76000000000005</v>
       </c>
     </row>
@@ -4487,7 +4564,7 @@
         <v>250</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>432.76000000000005</v>
       </c>
     </row>
@@ -4515,7 +4592,7 @@
         <v>250</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>449.96000000000004</v>
       </c>
     </row>
@@ -4543,7 +4620,7 @@
         <v>250</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>474.96000000000004</v>
       </c>
     </row>
@@ -4571,7 +4648,7 @@
         <v>250</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>479.46000000000004</v>
       </c>
     </row>
@@ -4599,7 +4676,7 @@
         <v>250</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>474.46000000000004</v>
       </c>
     </row>
@@ -4627,7 +4704,7 @@
         <v>250</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>493.46000000000004</v>
       </c>
     </row>
@@ -4655,7 +4732,7 @@
         <v>250</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>473.46000000000004</v>
       </c>
     </row>
@@ -4683,7 +4760,7 @@
         <v>250</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>491.46000000000004</v>
       </c>
     </row>
@@ -4711,7 +4788,7 @@
         <v>250</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>518.46</v>
       </c>
     </row>
@@ -4739,7 +4816,7 @@
         <v>250</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>520.36</v>
       </c>
     </row>
@@ -4767,7 +4844,7 @@
         <v>250</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>544.36</v>
       </c>
     </row>
@@ -4795,7 +4872,7 @@
         <v>250</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>524.36</v>
       </c>
     </row>
@@ -4823,7 +4900,7 @@
         <v>250</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>504.36</v>
       </c>
     </row>
@@ -4851,7 +4928,7 @@
         <v>250</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>520.36</v>
       </c>
     </row>
@@ -4879,7 +4956,7 @@
         <v>250</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>537.56000000000006</v>
       </c>
     </row>
@@ -4897,7 +4974,7 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <f t="shared" ref="G106:G121" si="31">IF(F106="Y",(C106*B106)-C106,-C106)</f>
+        <f t="shared" ref="G106:G128" si="33">IF(F106="Y",(C106*B106)-C106,-C106)</f>
         <v>-20</v>
       </c>
       <c r="H106" s="1">
@@ -4907,7 +4984,7 @@
         <v>250</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>517.56000000000006</v>
       </c>
     </row>
@@ -4935,7 +5012,7 @@
         <v>250</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>497.56000000000006</v>
       </c>
     </row>
@@ -4963,7 +5040,7 @@
         <v>250</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>477.56000000000006</v>
       </c>
     </row>
@@ -4991,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>467.56000000000006</v>
       </c>
     </row>
@@ -5019,7 +5096,7 @@
         <v>250</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>476.56000000000006</v>
       </c>
     </row>
@@ -5037,7 +5114,7 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-20</v>
       </c>
       <c r="H111" s="1">
@@ -5047,7 +5124,7 @@
         <v>250</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>456.56000000000006</v>
       </c>
     </row>
@@ -5065,7 +5142,7 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-20</v>
       </c>
       <c r="H112" s="1">
@@ -5075,7 +5152,7 @@
         <v>250</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>436.56000000000006</v>
       </c>
     </row>
@@ -5093,7 +5170,7 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-20</v>
       </c>
       <c r="H113" s="1">
@@ -5103,7 +5180,7 @@
         <v>250</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>416.56000000000006</v>
       </c>
     </row>
@@ -5121,7 +5198,7 @@
         <v>16</v>
       </c>
       <c r="G114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="H114" s="1">
@@ -5131,7 +5208,7 @@
         <v>250</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>432.56000000000006</v>
       </c>
     </row>
@@ -5149,7 +5226,7 @@
         <v>16</v>
       </c>
       <c r="G115">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H115" s="1">
@@ -5159,7 +5236,7 @@
         <v>250</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>449.16000000000008</v>
       </c>
     </row>
@@ -5177,7 +5254,7 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-10</v>
       </c>
       <c r="H116" s="1">
@@ -5187,7 +5264,7 @@
         <v>250</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>439.16000000000008</v>
       </c>
     </row>
@@ -5205,7 +5282,7 @@
         <v>10</v>
       </c>
       <c r="G117">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-20</v>
       </c>
       <c r="H117" s="1">
@@ -5215,7 +5292,7 @@
         <v>250</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>419.16000000000008</v>
       </c>
     </row>
@@ -5233,7 +5310,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="H118" s="1">
@@ -5243,7 +5320,7 @@
         <v>250</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>428.16000000000008</v>
       </c>
     </row>
@@ -5261,7 +5338,7 @@
         <v>16</v>
       </c>
       <c r="G119">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>27</v>
       </c>
       <c r="H119" s="1">
@@ -5271,7 +5348,7 @@
         <v>250</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" ref="K119" si="32">K118+G119</f>
+        <f t="shared" ref="K119" si="34">K118+G119</f>
         <v>455.16000000000008</v>
       </c>
     </row>
@@ -5289,7 +5366,7 @@
         <v>16</v>
       </c>
       <c r="G120">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="H120" s="1">
@@ -5299,7 +5376,7 @@
         <v>250</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" ref="K120:K121" si="33">K119+G120</f>
+        <f t="shared" ref="K120:K121" si="35">K119+G120</f>
         <v>466.16000000000008</v>
       </c>
     </row>
@@ -5317,7 +5394,7 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-20</v>
       </c>
       <c r="H121" s="1">
@@ -5327,8 +5404,204 @@
         <v>250</v>
       </c>
       <c r="K121" s="6">
+        <f t="shared" si="35"/>
+        <v>446.16000000000008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122">
+        <v>1.9</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122">
         <f t="shared" si="33"/>
-        <v>446.16000000000008</v>
+        <v>-10</v>
+      </c>
+      <c r="H122" s="1">
+        <v>45323</v>
+      </c>
+      <c r="J122">
+        <v>250</v>
+      </c>
+      <c r="K122" s="6">
+        <f t="shared" ref="K122:K128" si="36">K121+G122</f>
+        <v>436.16000000000008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123">
+        <v>1.9</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="H123" s="1">
+        <v>45323</v>
+      </c>
+      <c r="J123">
+        <v>250</v>
+      </c>
+      <c r="K123" s="6">
+        <f t="shared" si="36"/>
+        <v>426.16000000000008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124">
+        <v>1.5</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="F124" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="H124" s="1">
+        <v>45323</v>
+      </c>
+      <c r="J124">
+        <v>250</v>
+      </c>
+      <c r="K124" s="6">
+        <f t="shared" si="36"/>
+        <v>436.16000000000008</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125">
+        <v>3.9</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="H125" s="1">
+        <v>45323</v>
+      </c>
+      <c r="J125">
+        <v>250</v>
+      </c>
+      <c r="K125" s="6">
+        <f t="shared" si="36"/>
+        <v>426.16000000000008</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126">
+        <v>1.62</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="33"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="H126" s="1">
+        <v>45326</v>
+      </c>
+      <c r="J126">
+        <v>250</v>
+      </c>
+      <c r="K126" s="6">
+        <f t="shared" si="36"/>
+        <v>432.36000000000007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127">
+        <v>1.9</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="H127" s="1">
+        <v>45326</v>
+      </c>
+      <c r="J127">
+        <v>250</v>
+      </c>
+      <c r="K127" s="6">
+        <f t="shared" si="36"/>
+        <v>441.36000000000007</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128">
+        <v>1.9</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+      <c r="H128" s="1">
+        <v>45326</v>
+      </c>
+      <c r="J128">
+        <v>250</v>
+      </c>
+      <c r="K128" s="6">
+        <f t="shared" si="36"/>
+        <v>431.36000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014D880D-13B0-45D6-BBF9-5980DFAECB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0CDA8-F86F-4E75-825D-8DAF26C9963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>Raptors Under 235</t>
+  </si>
+  <si>
+    <t>Rangers over 6.5</t>
+  </si>
+  <si>
+    <t>Islainders ML</t>
   </si>
 </sst>
 </file>
@@ -787,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AB128"/>
+  <dimension ref="A1:AB130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +912,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.72544000000000031</v>
+        <v>0.75244000000000022</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -3452,7 +3458,7 @@
         <v>45323</v>
       </c>
       <c r="P53" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" ref="Q53:Q56" si="28">Q52+R53</f>
@@ -3494,7 +3500,7 @@
         <v>45324</v>
       </c>
       <c r="P54" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="28"/>
@@ -3536,7 +3542,7 @@
         <v>45325</v>
       </c>
       <c r="P55" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="28"/>
@@ -3578,7 +3584,7 @@
         <v>45326</v>
       </c>
       <c r="P56" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="28"/>
@@ -3616,6 +3622,20 @@
         <f t="shared" si="26"/>
         <v>394.57</v>
       </c>
+      <c r="O57" s="1">
+        <v>45327</v>
+      </c>
+      <c r="P57" s="2">
+        <v>251</v>
+      </c>
+      <c r="Q57" s="2">
+        <f t="shared" ref="Q57" si="30">Q56+R57</f>
+        <v>438.10999999999996</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ref="R57" si="31">SUMIF(H56:H180, O57, G56:G180)</f>
+        <v>6.75</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -3696,7 +3716,7 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="30">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="32">K59+G60</f>
         <v>441.37</v>
       </c>
     </row>
@@ -3724,7 +3744,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>461.37</v>
       </c>
     </row>
@@ -3752,7 +3772,7 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3780,7 +3800,7 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>421.37</v>
       </c>
     </row>
@@ -3808,7 +3828,7 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>391.37</v>
       </c>
     </row>
@@ -3836,7 +3856,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="31">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="33">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3864,7 +3884,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3892,7 +3912,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>420.17</v>
       </c>
     </row>
@@ -3920,7 +3940,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>461.41</v>
       </c>
     </row>
@@ -3948,7 +3968,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>441.41</v>
       </c>
     </row>
@@ -3976,7 +3996,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -4004,7 +4024,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K118" si="32">K70+G71</f>
+        <f t="shared" ref="K71:K118" si="34">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -4032,7 +4052,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>443.41</v>
       </c>
     </row>
@@ -4060,7 +4080,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -4088,7 +4108,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4116,7 +4136,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -4144,7 +4164,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4172,7 +4192,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>455.21000000000004</v>
       </c>
     </row>
@@ -4200,7 +4220,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>471.21000000000004</v>
       </c>
     </row>
@@ -4228,7 +4248,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>451.21000000000004</v>
       </c>
     </row>
@@ -4256,7 +4276,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4284,7 +4304,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4312,7 +4332,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4340,7 +4360,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>448.51000000000005</v>
       </c>
     </row>
@@ -4368,7 +4388,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>453.01000000000005</v>
       </c>
     </row>
@@ -4396,7 +4416,7 @@
         <v>250</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>433.01000000000005</v>
       </c>
     </row>
@@ -4424,7 +4444,7 @@
         <v>250</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>442.01000000000005</v>
       </c>
     </row>
@@ -4452,7 +4472,7 @@
         <v>250</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>422.01000000000005</v>
       </c>
     </row>
@@ -4480,7 +4500,7 @@
         <v>250</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>438.01000000000005</v>
       </c>
     </row>
@@ -4508,7 +4528,7 @@
         <v>250</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>442.76000000000005</v>
       </c>
     </row>
@@ -4536,7 +4556,7 @@
         <v>250</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>437.76000000000005</v>
       </c>
     </row>
@@ -4564,7 +4584,7 @@
         <v>250</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>432.76000000000005</v>
       </c>
     </row>
@@ -4592,7 +4612,7 @@
         <v>250</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>449.96000000000004</v>
       </c>
     </row>
@@ -4620,7 +4640,7 @@
         <v>250</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>474.96000000000004</v>
       </c>
     </row>
@@ -4648,7 +4668,7 @@
         <v>250</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>479.46000000000004</v>
       </c>
     </row>
@@ -4676,7 +4696,7 @@
         <v>250</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>474.46000000000004</v>
       </c>
     </row>
@@ -4704,7 +4724,7 @@
         <v>250</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>493.46000000000004</v>
       </c>
     </row>
@@ -4732,7 +4752,7 @@
         <v>250</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>473.46000000000004</v>
       </c>
     </row>
@@ -4760,7 +4780,7 @@
         <v>250</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>491.46000000000004</v>
       </c>
     </row>
@@ -4788,7 +4808,7 @@
         <v>250</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>518.46</v>
       </c>
     </row>
@@ -4816,7 +4836,7 @@
         <v>250</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>520.36</v>
       </c>
     </row>
@@ -4844,7 +4864,7 @@
         <v>250</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>544.36</v>
       </c>
     </row>
@@ -4872,7 +4892,7 @@
         <v>250</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>524.36</v>
       </c>
     </row>
@@ -4900,7 +4920,7 @@
         <v>250</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>504.36</v>
       </c>
     </row>
@@ -4928,7 +4948,7 @@
         <v>250</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>520.36</v>
       </c>
     </row>
@@ -4956,7 +4976,7 @@
         <v>250</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>537.56000000000006</v>
       </c>
     </row>
@@ -4974,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <f t="shared" ref="G106:G128" si="33">IF(F106="Y",(C106*B106)-C106,-C106)</f>
+        <f t="shared" ref="G106:G130" si="35">IF(F106="Y",(C106*B106)-C106,-C106)</f>
         <v>-20</v>
       </c>
       <c r="H106" s="1">
@@ -4984,7 +5004,7 @@
         <v>250</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>517.56000000000006</v>
       </c>
     </row>
@@ -5012,7 +5032,7 @@
         <v>250</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>497.56000000000006</v>
       </c>
     </row>
@@ -5040,7 +5060,7 @@
         <v>250</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>477.56000000000006</v>
       </c>
     </row>
@@ -5068,7 +5088,7 @@
         <v>250</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>467.56000000000006</v>
       </c>
     </row>
@@ -5096,7 +5116,7 @@
         <v>250</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>476.56000000000006</v>
       </c>
     </row>
@@ -5114,7 +5134,7 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-20</v>
       </c>
       <c r="H111" s="1">
@@ -5124,7 +5144,7 @@
         <v>250</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>456.56000000000006</v>
       </c>
     </row>
@@ -5142,7 +5162,7 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-20</v>
       </c>
       <c r="H112" s="1">
@@ -5152,7 +5172,7 @@
         <v>250</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>436.56000000000006</v>
       </c>
     </row>
@@ -5170,7 +5190,7 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-20</v>
       </c>
       <c r="H113" s="1">
@@ -5180,7 +5200,7 @@
         <v>250</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>416.56000000000006</v>
       </c>
     </row>
@@ -5198,7 +5218,7 @@
         <v>16</v>
       </c>
       <c r="G114">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="H114" s="1">
@@ -5208,7 +5228,7 @@
         <v>250</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>432.56000000000006</v>
       </c>
     </row>
@@ -5226,7 +5246,7 @@
         <v>16</v>
       </c>
       <c r="G115">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H115" s="1">
@@ -5236,7 +5256,7 @@
         <v>250</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>449.16000000000008</v>
       </c>
     </row>
@@ -5254,7 +5274,7 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-10</v>
       </c>
       <c r="H116" s="1">
@@ -5264,7 +5284,7 @@
         <v>250</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>439.16000000000008</v>
       </c>
     </row>
@@ -5282,7 +5302,7 @@
         <v>10</v>
       </c>
       <c r="G117">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-20</v>
       </c>
       <c r="H117" s="1">
@@ -5292,7 +5312,7 @@
         <v>250</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>419.16000000000008</v>
       </c>
     </row>
@@ -5310,7 +5330,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="H118" s="1">
@@ -5320,7 +5340,7 @@
         <v>250</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>428.16000000000008</v>
       </c>
     </row>
@@ -5338,7 +5358,7 @@
         <v>16</v>
       </c>
       <c r="G119">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>27</v>
       </c>
       <c r="H119" s="1">
@@ -5348,7 +5368,7 @@
         <v>250</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" ref="K119" si="34">K118+G119</f>
+        <f t="shared" ref="K119" si="36">K118+G119</f>
         <v>455.16000000000008</v>
       </c>
     </row>
@@ -5366,7 +5386,7 @@
         <v>16</v>
       </c>
       <c r="G120">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="H120" s="1">
@@ -5376,7 +5396,7 @@
         <v>250</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" ref="K120:K121" si="35">K119+G120</f>
+        <f t="shared" ref="K120:K121" si="37">K119+G120</f>
         <v>466.16000000000008</v>
       </c>
     </row>
@@ -5394,7 +5414,7 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-20</v>
       </c>
       <c r="H121" s="1">
@@ -5404,7 +5424,7 @@
         <v>250</v>
       </c>
       <c r="K121" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>446.16000000000008</v>
       </c>
     </row>
@@ -5422,7 +5442,7 @@
         <v>10</v>
       </c>
       <c r="G122">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-10</v>
       </c>
       <c r="H122" s="1">
@@ -5432,7 +5452,7 @@
         <v>250</v>
       </c>
       <c r="K122" s="6">
-        <f t="shared" ref="K122:K128" si="36">K121+G122</f>
+        <f t="shared" ref="K122:K128" si="38">K121+G122</f>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5450,7 +5470,7 @@
         <v>10</v>
       </c>
       <c r="G123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-10</v>
       </c>
       <c r="H123" s="1">
@@ -5460,7 +5480,7 @@
         <v>250</v>
       </c>
       <c r="K123" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5478,7 +5498,7 @@
         <v>16</v>
       </c>
       <c r="G124">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="H124" s="1">
@@ -5488,7 +5508,7 @@
         <v>250</v>
       </c>
       <c r="K124" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5506,7 +5526,7 @@
         <v>10</v>
       </c>
       <c r="G125">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-10</v>
       </c>
       <c r="H125" s="1">
@@ -5516,7 +5536,7 @@
         <v>250</v>
       </c>
       <c r="K125" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5534,7 +5554,7 @@
         <v>16</v>
       </c>
       <c r="G126">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="H126" s="1">
@@ -5544,7 +5564,7 @@
         <v>250</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>432.36000000000007</v>
       </c>
     </row>
@@ -5562,7 +5582,7 @@
         <v>16</v>
       </c>
       <c r="G127">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="H127" s="1">
@@ -5572,7 +5592,7 @@
         <v>250</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>441.36000000000007</v>
       </c>
     </row>
@@ -5590,7 +5610,7 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-10</v>
       </c>
       <c r="H128" s="1">
@@ -5600,8 +5620,64 @@
         <v>250</v>
       </c>
       <c r="K128" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>431.36000000000007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129">
+        <v>1.95</v>
+      </c>
+      <c r="C129">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="35"/>
+        <v>-15</v>
+      </c>
+      <c r="H129" s="1">
+        <v>45327</v>
+      </c>
+      <c r="J129">
+        <v>250</v>
+      </c>
+      <c r="K129" s="6">
+        <f t="shared" ref="K129:K130" si="39">K128+G129</f>
+        <v>416.36000000000007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="35"/>
+        <v>21.75</v>
+      </c>
+      <c r="H130" s="1">
+        <v>45327</v>
+      </c>
+      <c r="J130">
+        <v>250</v>
+      </c>
+      <c r="K130" s="6">
+        <f t="shared" si="39"/>
+        <v>438.11000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0CDA8-F86F-4E75-825D-8DAF26C9963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE533C1-70C8-486E-8EE2-9003A03C4ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -406,6 +406,21 @@
   </si>
   <si>
     <t>Islainders ML</t>
+  </si>
+  <si>
+    <t>Thunder ML</t>
+  </si>
+  <si>
+    <t>Stars ML</t>
+  </si>
+  <si>
+    <t>Magic ML</t>
+  </si>
+  <si>
+    <t>Rockets Over 236.5</t>
+  </si>
+  <si>
+    <t>Avs Over 6.5</t>
   </si>
 </sst>
 </file>
@@ -793,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AB130"/>
+  <dimension ref="A1:AB138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +927,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.75244000000000022</v>
+        <v>0.9844400000000002</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -3626,7 +3641,7 @@
         <v>45327</v>
       </c>
       <c r="P57" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" ref="Q57" si="30">Q56+R57</f>
@@ -3664,6 +3679,20 @@
         <f t="shared" si="26"/>
         <v>415.87</v>
       </c>
+      <c r="O58" s="1">
+        <v>45328</v>
+      </c>
+      <c r="P58" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" ref="Q58" si="32">Q57+R58</f>
+        <v>496.10999999999996</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ref="R58" si="33">SUMIF(H57:H181, O58, G57:G181)</f>
+        <v>58</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -3716,7 +3745,7 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="32">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="34">K59+G60</f>
         <v>441.37</v>
       </c>
     </row>
@@ -3744,7 +3773,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>461.37</v>
       </c>
     </row>
@@ -3772,7 +3801,7 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3800,7 +3829,7 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>421.37</v>
       </c>
     </row>
@@ -3828,7 +3857,7 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>391.37</v>
       </c>
     </row>
@@ -3856,7 +3885,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="33">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="35">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3884,7 +3913,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3912,7 +3941,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>420.17</v>
       </c>
     </row>
@@ -3940,7 +3969,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>461.41</v>
       </c>
     </row>
@@ -3968,7 +3997,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>441.41</v>
       </c>
     </row>
@@ -3996,7 +4025,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -4024,7 +4053,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K118" si="34">K70+G71</f>
+        <f t="shared" ref="K71:K118" si="36">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -4052,7 +4081,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>443.41</v>
       </c>
     </row>
@@ -4080,7 +4109,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -4108,7 +4137,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4136,7 +4165,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -4164,7 +4193,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4192,7 +4221,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>455.21000000000004</v>
       </c>
     </row>
@@ -4220,7 +4249,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>471.21000000000004</v>
       </c>
     </row>
@@ -4248,7 +4277,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>451.21000000000004</v>
       </c>
     </row>
@@ -4276,7 +4305,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4304,7 +4333,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4332,7 +4361,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4360,7 +4389,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>448.51000000000005</v>
       </c>
     </row>
@@ -4388,7 +4417,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>453.01000000000005</v>
       </c>
     </row>
@@ -4416,7 +4445,7 @@
         <v>250</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>433.01000000000005</v>
       </c>
     </row>
@@ -4444,7 +4473,7 @@
         <v>250</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>442.01000000000005</v>
       </c>
     </row>
@@ -4472,7 +4501,7 @@
         <v>250</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>422.01000000000005</v>
       </c>
     </row>
@@ -4500,7 +4529,7 @@
         <v>250</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>438.01000000000005</v>
       </c>
     </row>
@@ -4528,7 +4557,7 @@
         <v>250</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>442.76000000000005</v>
       </c>
     </row>
@@ -4556,7 +4585,7 @@
         <v>250</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>437.76000000000005</v>
       </c>
     </row>
@@ -4584,7 +4613,7 @@
         <v>250</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>432.76000000000005</v>
       </c>
     </row>
@@ -4612,7 +4641,7 @@
         <v>250</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>449.96000000000004</v>
       </c>
     </row>
@@ -4640,7 +4669,7 @@
         <v>250</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>474.96000000000004</v>
       </c>
     </row>
@@ -4668,7 +4697,7 @@
         <v>250</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>479.46000000000004</v>
       </c>
     </row>
@@ -4696,7 +4725,7 @@
         <v>250</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>474.46000000000004</v>
       </c>
     </row>
@@ -4724,7 +4753,7 @@
         <v>250</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>493.46000000000004</v>
       </c>
     </row>
@@ -4752,7 +4781,7 @@
         <v>250</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>473.46000000000004</v>
       </c>
     </row>
@@ -4780,7 +4809,7 @@
         <v>250</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>491.46000000000004</v>
       </c>
     </row>
@@ -4808,7 +4837,7 @@
         <v>250</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>518.46</v>
       </c>
     </row>
@@ -4836,7 +4865,7 @@
         <v>250</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>520.36</v>
       </c>
     </row>
@@ -4864,7 +4893,7 @@
         <v>250</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>544.36</v>
       </c>
     </row>
@@ -4892,7 +4921,7 @@
         <v>250</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>524.36</v>
       </c>
     </row>
@@ -4920,7 +4949,7 @@
         <v>250</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>504.36</v>
       </c>
     </row>
@@ -4948,7 +4977,7 @@
         <v>250</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>520.36</v>
       </c>
     </row>
@@ -4976,7 +5005,7 @@
         <v>250</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>537.56000000000006</v>
       </c>
     </row>
@@ -4994,7 +5023,7 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <f t="shared" ref="G106:G130" si="35">IF(F106="Y",(C106*B106)-C106,-C106)</f>
+        <f t="shared" ref="G106:G138" si="37">IF(F106="Y",(C106*B106)-C106,-C106)</f>
         <v>-20</v>
       </c>
       <c r="H106" s="1">
@@ -5004,7 +5033,7 @@
         <v>250</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>517.56000000000006</v>
       </c>
     </row>
@@ -5032,7 +5061,7 @@
         <v>250</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>497.56000000000006</v>
       </c>
     </row>
@@ -5060,7 +5089,7 @@
         <v>250</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>477.56000000000006</v>
       </c>
     </row>
@@ -5088,7 +5117,7 @@
         <v>250</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>467.56000000000006</v>
       </c>
     </row>
@@ -5116,7 +5145,7 @@
         <v>250</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>476.56000000000006</v>
       </c>
     </row>
@@ -5134,7 +5163,7 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-20</v>
       </c>
       <c r="H111" s="1">
@@ -5144,7 +5173,7 @@
         <v>250</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>456.56000000000006</v>
       </c>
     </row>
@@ -5162,7 +5191,7 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-20</v>
       </c>
       <c r="H112" s="1">
@@ -5172,7 +5201,7 @@
         <v>250</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>436.56000000000006</v>
       </c>
     </row>
@@ -5190,7 +5219,7 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-20</v>
       </c>
       <c r="H113" s="1">
@@ -5200,7 +5229,7 @@
         <v>250</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>416.56000000000006</v>
       </c>
     </row>
@@ -5218,7 +5247,7 @@
         <v>16</v>
       </c>
       <c r="G114">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="H114" s="1">
@@ -5228,7 +5257,7 @@
         <v>250</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>432.56000000000006</v>
       </c>
     </row>
@@ -5246,7 +5275,7 @@
         <v>16</v>
       </c>
       <c r="G115">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H115" s="1">
@@ -5256,7 +5285,7 @@
         <v>250</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>449.16000000000008</v>
       </c>
     </row>
@@ -5274,7 +5303,7 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-10</v>
       </c>
       <c r="H116" s="1">
@@ -5284,7 +5313,7 @@
         <v>250</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>439.16000000000008</v>
       </c>
     </row>
@@ -5302,7 +5331,7 @@
         <v>10</v>
       </c>
       <c r="G117">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-20</v>
       </c>
       <c r="H117" s="1">
@@ -5312,7 +5341,7 @@
         <v>250</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>419.16000000000008</v>
       </c>
     </row>
@@ -5330,7 +5359,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="H118" s="1">
@@ -5340,7 +5369,7 @@
         <v>250</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>428.16000000000008</v>
       </c>
     </row>
@@ -5358,7 +5387,7 @@
         <v>16</v>
       </c>
       <c r="G119">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>27</v>
       </c>
       <c r="H119" s="1">
@@ -5368,7 +5397,7 @@
         <v>250</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" ref="K119" si="36">K118+G119</f>
+        <f t="shared" ref="K119" si="38">K118+G119</f>
         <v>455.16000000000008</v>
       </c>
     </row>
@@ -5386,7 +5415,7 @@
         <v>16</v>
       </c>
       <c r="G120">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="H120" s="1">
@@ -5396,7 +5425,7 @@
         <v>250</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" ref="K120:K121" si="37">K119+G120</f>
+        <f t="shared" ref="K120:K121" si="39">K119+G120</f>
         <v>466.16000000000008</v>
       </c>
     </row>
@@ -5414,7 +5443,7 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-20</v>
       </c>
       <c r="H121" s="1">
@@ -5424,7 +5453,7 @@
         <v>250</v>
       </c>
       <c r="K121" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>446.16000000000008</v>
       </c>
     </row>
@@ -5442,7 +5471,7 @@
         <v>10</v>
       </c>
       <c r="G122">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-10</v>
       </c>
       <c r="H122" s="1">
@@ -5452,7 +5481,7 @@
         <v>250</v>
       </c>
       <c r="K122" s="6">
-        <f t="shared" ref="K122:K128" si="38">K121+G122</f>
+        <f t="shared" ref="K122:K128" si="40">K121+G122</f>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5470,7 +5499,7 @@
         <v>10</v>
       </c>
       <c r="G123">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-10</v>
       </c>
       <c r="H123" s="1">
@@ -5480,7 +5509,7 @@
         <v>250</v>
       </c>
       <c r="K123" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5498,7 +5527,7 @@
         <v>16</v>
       </c>
       <c r="G124">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="H124" s="1">
@@ -5508,7 +5537,7 @@
         <v>250</v>
       </c>
       <c r="K124" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5526,7 +5555,7 @@
         <v>10</v>
       </c>
       <c r="G125">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-10</v>
       </c>
       <c r="H125" s="1">
@@ -5536,7 +5565,7 @@
         <v>250</v>
       </c>
       <c r="K125" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5554,7 +5583,7 @@
         <v>16</v>
       </c>
       <c r="G126">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="H126" s="1">
@@ -5564,7 +5593,7 @@
         <v>250</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>432.36000000000007</v>
       </c>
     </row>
@@ -5582,7 +5611,7 @@
         <v>16</v>
       </c>
       <c r="G127">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="H127" s="1">
@@ -5592,7 +5621,7 @@
         <v>250</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>441.36000000000007</v>
       </c>
     </row>
@@ -5610,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-10</v>
       </c>
       <c r="H128" s="1">
@@ -5620,7 +5649,7 @@
         <v>250</v>
       </c>
       <c r="K128" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>431.36000000000007</v>
       </c>
     </row>
@@ -5638,7 +5667,7 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-15</v>
       </c>
       <c r="H129" s="1">
@@ -5648,7 +5677,7 @@
         <v>250</v>
       </c>
       <c r="K129" s="6">
-        <f t="shared" ref="K129:K130" si="39">K128+G129</f>
+        <f t="shared" ref="K129:K130" si="41">K128+G129</f>
         <v>416.36000000000007</v>
       </c>
     </row>
@@ -5666,7 +5695,7 @@
         <v>16</v>
       </c>
       <c r="G130">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>21.75</v>
       </c>
       <c r="H130" s="1">
@@ -5676,8 +5705,232 @@
         <v>250</v>
       </c>
       <c r="K130" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>438.11000000000007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131">
+        <v>1.68</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="37"/>
+        <v>-10</v>
+      </c>
+      <c r="H131" s="1">
+        <v>45328</v>
+      </c>
+      <c r="J131">
+        <v>250</v>
+      </c>
+      <c r="K131" s="6">
+        <f t="shared" ref="K131:K138" si="42">K130+G131</f>
+        <v>428.11000000000007</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132">
+        <v>1.66</v>
+      </c>
+      <c r="C132">
+        <v>30</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="37"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="H132" s="1">
+        <v>45328</v>
+      </c>
+      <c r="J132">
+        <v>250</v>
+      </c>
+      <c r="K132" s="6">
+        <f t="shared" si="42"/>
+        <v>447.91000000000008</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133">
+        <v>2.35</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="37"/>
+        <v>-10</v>
+      </c>
+      <c r="H133" s="1">
+        <v>45328</v>
+      </c>
+      <c r="J133">
+        <v>250</v>
+      </c>
+      <c r="K133" s="6">
+        <f t="shared" si="42"/>
+        <v>437.91000000000008</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>119</v>
+      </c>
+      <c r="B134">
+        <v>1.9</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="F134" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+      <c r="H134" s="1">
+        <v>45328</v>
+      </c>
+      <c r="J134">
+        <v>250</v>
+      </c>
+      <c r="K134" s="6">
+        <f t="shared" si="42"/>
+        <v>455.91000000000008</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135">
+        <v>1.76</v>
+      </c>
+      <c r="C135">
+        <v>20</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="37"/>
+        <v>-20</v>
+      </c>
+      <c r="H135" s="1">
+        <v>45328</v>
+      </c>
+      <c r="J135">
+        <v>250</v>
+      </c>
+      <c r="K135" s="6">
+        <f t="shared" si="42"/>
+        <v>435.91000000000008</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136">
+        <v>1.86</v>
+      </c>
+      <c r="C136">
+        <v>20</v>
+      </c>
+      <c r="F136" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="37"/>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="H136" s="1">
+        <v>45328</v>
+      </c>
+      <c r="J136">
+        <v>250</v>
+      </c>
+      <c r="K136" s="6">
+        <f t="shared" si="42"/>
+        <v>453.11000000000007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137">
+        <v>1.9</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="F137" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+      <c r="H137" s="1">
+        <v>45328</v>
+      </c>
+      <c r="J137">
+        <v>250</v>
+      </c>
+      <c r="K137" s="6">
+        <f t="shared" si="42"/>
+        <v>471.11000000000007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138">
+        <v>2.25</v>
+      </c>
+      <c r="C138">
+        <v>20</v>
+      </c>
+      <c r="F138" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="H138" s="1">
+        <v>45328</v>
+      </c>
+      <c r="J138">
+        <v>250</v>
+      </c>
+      <c r="K138" s="6">
+        <f t="shared" si="42"/>
+        <v>496.11000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE533C1-70C8-486E-8EE2-9003A03C4ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F3650-E937-42A6-9E2C-957221C02A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -421,6 +421,30 @@
   </si>
   <si>
     <t>Avs Over 6.5</t>
+  </si>
+  <si>
+    <t>Spurs ML</t>
+  </si>
+  <si>
+    <t>Canucks Over 5.5</t>
+  </si>
+  <si>
+    <t>Suns ML</t>
+  </si>
+  <si>
+    <t>Suns Under 243.5</t>
+  </si>
+  <si>
+    <t>Avs ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightning Over 6 </t>
+  </si>
+  <si>
+    <t>Pacers ML</t>
+  </si>
+  <si>
+    <t>Bucks Over 228.5</t>
   </si>
 </sst>
 </file>
@@ -808,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AB138"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +951,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.9844400000000002</v>
+        <v>0.7548400000000004</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -3721,6 +3745,20 @@
         <f t="shared" si="26"/>
         <v>441.37</v>
       </c>
+      <c r="O59" s="1">
+        <v>45329</v>
+      </c>
+      <c r="P59" s="2">
+        <v>251</v>
+      </c>
+      <c r="Q59" s="2">
+        <f t="shared" ref="Q59:Q60" si="34">Q58+R59</f>
+        <v>476.10999999999996</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ref="R59:R60" si="35">SUMIF(H58:H182, O59, G58:G182)</f>
+        <v>-20</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -3745,8 +3783,22 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="34">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="36">K59+G60</f>
         <v>441.37</v>
+      </c>
+      <c r="O60" s="1">
+        <v>45330</v>
+      </c>
+      <c r="P60" s="2">
+        <v>252</v>
+      </c>
+      <c r="Q60" s="2">
+        <f t="shared" si="34"/>
+        <v>438.70999999999992</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="35"/>
+        <v>-37.400000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
@@ -3773,7 +3825,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>461.37</v>
       </c>
     </row>
@@ -3801,7 +3853,7 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3829,7 +3881,7 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>421.37</v>
       </c>
     </row>
@@ -3857,7 +3909,7 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>391.37</v>
       </c>
     </row>
@@ -3885,7 +3937,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="35">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="37">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3913,7 +3965,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3941,7 +3993,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>420.17</v>
       </c>
     </row>
@@ -3969,7 +4021,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>461.41</v>
       </c>
     </row>
@@ -3997,7 +4049,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>441.41</v>
       </c>
     </row>
@@ -4025,7 +4077,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -4053,7 +4105,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K118" si="36">K70+G71</f>
+        <f t="shared" ref="K71:K118" si="38">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -4081,7 +4133,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>443.41</v>
       </c>
     </row>
@@ -4109,7 +4161,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -4137,7 +4189,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4165,7 +4217,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -4193,7 +4245,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4221,7 +4273,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>455.21000000000004</v>
       </c>
     </row>
@@ -4249,7 +4301,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>471.21000000000004</v>
       </c>
     </row>
@@ -4277,7 +4329,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>451.21000000000004</v>
       </c>
     </row>
@@ -4305,7 +4357,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4333,7 +4385,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4361,7 +4413,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4389,7 +4441,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>448.51000000000005</v>
       </c>
     </row>
@@ -4417,7 +4469,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>453.01000000000005</v>
       </c>
     </row>
@@ -4445,7 +4497,7 @@
         <v>250</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>433.01000000000005</v>
       </c>
     </row>
@@ -4473,7 +4525,7 @@
         <v>250</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>442.01000000000005</v>
       </c>
     </row>
@@ -4501,7 +4553,7 @@
         <v>250</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>422.01000000000005</v>
       </c>
     </row>
@@ -4529,7 +4581,7 @@
         <v>250</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>438.01000000000005</v>
       </c>
     </row>
@@ -4557,7 +4609,7 @@
         <v>250</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>442.76000000000005</v>
       </c>
     </row>
@@ -4585,7 +4637,7 @@
         <v>250</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>437.76000000000005</v>
       </c>
     </row>
@@ -4613,7 +4665,7 @@
         <v>250</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>432.76000000000005</v>
       </c>
     </row>
@@ -4641,7 +4693,7 @@
         <v>250</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>449.96000000000004</v>
       </c>
     </row>
@@ -4669,7 +4721,7 @@
         <v>250</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>474.96000000000004</v>
       </c>
     </row>
@@ -4697,7 +4749,7 @@
         <v>250</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>479.46000000000004</v>
       </c>
     </row>
@@ -4725,7 +4777,7 @@
         <v>250</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>474.46000000000004</v>
       </c>
     </row>
@@ -4753,7 +4805,7 @@
         <v>250</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>493.46000000000004</v>
       </c>
     </row>
@@ -4781,7 +4833,7 @@
         <v>250</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>473.46000000000004</v>
       </c>
     </row>
@@ -4809,7 +4861,7 @@
         <v>250</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>491.46000000000004</v>
       </c>
     </row>
@@ -4837,7 +4889,7 @@
         <v>250</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>518.46</v>
       </c>
     </row>
@@ -4865,7 +4917,7 @@
         <v>250</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>520.36</v>
       </c>
     </row>
@@ -4893,7 +4945,7 @@
         <v>250</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>544.36</v>
       </c>
     </row>
@@ -4921,7 +4973,7 @@
         <v>250</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>524.36</v>
       </c>
     </row>
@@ -4949,7 +5001,7 @@
         <v>250</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>504.36</v>
       </c>
     </row>
@@ -4977,7 +5029,7 @@
         <v>250</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>520.36</v>
       </c>
     </row>
@@ -5005,7 +5057,7 @@
         <v>250</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>537.56000000000006</v>
       </c>
     </row>
@@ -5023,7 +5075,7 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <f t="shared" ref="G106:G138" si="37">IF(F106="Y",(C106*B106)-C106,-C106)</f>
+        <f t="shared" ref="G106:G148" si="39">IF(F106="Y",(C106*B106)-C106,-C106)</f>
         <v>-20</v>
       </c>
       <c r="H106" s="1">
@@ -5033,7 +5085,7 @@
         <v>250</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>517.56000000000006</v>
       </c>
     </row>
@@ -5061,7 +5113,7 @@
         <v>250</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>497.56000000000006</v>
       </c>
     </row>
@@ -5089,7 +5141,7 @@
         <v>250</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>477.56000000000006</v>
       </c>
     </row>
@@ -5117,7 +5169,7 @@
         <v>250</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>467.56000000000006</v>
       </c>
     </row>
@@ -5145,7 +5197,7 @@
         <v>250</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>476.56000000000006</v>
       </c>
     </row>
@@ -5163,7 +5215,7 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-20</v>
       </c>
       <c r="H111" s="1">
@@ -5173,7 +5225,7 @@
         <v>250</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>456.56000000000006</v>
       </c>
     </row>
@@ -5191,7 +5243,7 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-20</v>
       </c>
       <c r="H112" s="1">
@@ -5201,7 +5253,7 @@
         <v>250</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>436.56000000000006</v>
       </c>
     </row>
@@ -5219,7 +5271,7 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-20</v>
       </c>
       <c r="H113" s="1">
@@ -5229,7 +5281,7 @@
         <v>250</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>416.56000000000006</v>
       </c>
     </row>
@@ -5247,7 +5299,7 @@
         <v>16</v>
       </c>
       <c r="G114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="H114" s="1">
@@ -5257,7 +5309,7 @@
         <v>250</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>432.56000000000006</v>
       </c>
     </row>
@@ -5275,7 +5327,7 @@
         <v>16</v>
       </c>
       <c r="G115">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H115" s="1">
@@ -5285,7 +5337,7 @@
         <v>250</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>449.16000000000008</v>
       </c>
     </row>
@@ -5303,7 +5355,7 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-10</v>
       </c>
       <c r="H116" s="1">
@@ -5313,7 +5365,7 @@
         <v>250</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>439.16000000000008</v>
       </c>
     </row>
@@ -5331,7 +5383,7 @@
         <v>10</v>
       </c>
       <c r="G117">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-20</v>
       </c>
       <c r="H117" s="1">
@@ -5341,7 +5393,7 @@
         <v>250</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>419.16000000000008</v>
       </c>
     </row>
@@ -5359,7 +5411,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="H118" s="1">
@@ -5369,7 +5421,7 @@
         <v>250</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>428.16000000000008</v>
       </c>
     </row>
@@ -5387,7 +5439,7 @@
         <v>16</v>
       </c>
       <c r="G119">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>27</v>
       </c>
       <c r="H119" s="1">
@@ -5397,7 +5449,7 @@
         <v>250</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" ref="K119" si="38">K118+G119</f>
+        <f t="shared" ref="K119" si="40">K118+G119</f>
         <v>455.16000000000008</v>
       </c>
     </row>
@@ -5415,7 +5467,7 @@
         <v>16</v>
       </c>
       <c r="G120">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="H120" s="1">
@@ -5425,7 +5477,7 @@
         <v>250</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" ref="K120:K121" si="39">K119+G120</f>
+        <f t="shared" ref="K120:K121" si="41">K119+G120</f>
         <v>466.16000000000008</v>
       </c>
     </row>
@@ -5443,7 +5495,7 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-20</v>
       </c>
       <c r="H121" s="1">
@@ -5453,7 +5505,7 @@
         <v>250</v>
       </c>
       <c r="K121" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>446.16000000000008</v>
       </c>
     </row>
@@ -5471,7 +5523,7 @@
         <v>10</v>
       </c>
       <c r="G122">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-10</v>
       </c>
       <c r="H122" s="1">
@@ -5481,7 +5533,7 @@
         <v>250</v>
       </c>
       <c r="K122" s="6">
-        <f t="shared" ref="K122:K128" si="40">K121+G122</f>
+        <f t="shared" ref="K122:K128" si="42">K121+G122</f>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5499,7 +5551,7 @@
         <v>10</v>
       </c>
       <c r="G123">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-10</v>
       </c>
       <c r="H123" s="1">
@@ -5509,7 +5561,7 @@
         <v>250</v>
       </c>
       <c r="K123" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5527,7 +5579,7 @@
         <v>16</v>
       </c>
       <c r="G124">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="H124" s="1">
@@ -5537,7 +5589,7 @@
         <v>250</v>
       </c>
       <c r="K124" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5555,7 +5607,7 @@
         <v>10</v>
       </c>
       <c r="G125">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-10</v>
       </c>
       <c r="H125" s="1">
@@ -5565,7 +5617,7 @@
         <v>250</v>
       </c>
       <c r="K125" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5583,7 +5635,7 @@
         <v>16</v>
       </c>
       <c r="G126">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="H126" s="1">
@@ -5593,7 +5645,7 @@
         <v>250</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>432.36000000000007</v>
       </c>
     </row>
@@ -5611,7 +5663,7 @@
         <v>16</v>
       </c>
       <c r="G127">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="H127" s="1">
@@ -5621,7 +5673,7 @@
         <v>250</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>441.36000000000007</v>
       </c>
     </row>
@@ -5639,7 +5691,7 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-10</v>
       </c>
       <c r="H128" s="1">
@@ -5649,7 +5701,7 @@
         <v>250</v>
       </c>
       <c r="K128" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>431.36000000000007</v>
       </c>
     </row>
@@ -5667,7 +5719,7 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-15</v>
       </c>
       <c r="H129" s="1">
@@ -5677,7 +5729,7 @@
         <v>250</v>
       </c>
       <c r="K129" s="6">
-        <f t="shared" ref="K129:K130" si="41">K128+G129</f>
+        <f t="shared" ref="K129:K130" si="43">K128+G129</f>
         <v>416.36000000000007</v>
       </c>
     </row>
@@ -5695,7 +5747,7 @@
         <v>16</v>
       </c>
       <c r="G130">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>21.75</v>
       </c>
       <c r="H130" s="1">
@@ -5705,7 +5757,7 @@
         <v>250</v>
       </c>
       <c r="K130" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>438.11000000000007</v>
       </c>
     </row>
@@ -5723,7 +5775,7 @@
         <v>10</v>
       </c>
       <c r="G131">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-10</v>
       </c>
       <c r="H131" s="1">
@@ -5733,7 +5785,7 @@
         <v>250</v>
       </c>
       <c r="K131" s="6">
-        <f t="shared" ref="K131:K138" si="42">K130+G131</f>
+        <f t="shared" ref="K131:K138" si="44">K130+G131</f>
         <v>428.11000000000007</v>
       </c>
     </row>
@@ -5751,7 +5803,7 @@
         <v>16</v>
       </c>
       <c r="G132">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>19.799999999999997</v>
       </c>
       <c r="H132" s="1">
@@ -5761,7 +5813,7 @@
         <v>250</v>
       </c>
       <c r="K132" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>447.91000000000008</v>
       </c>
     </row>
@@ -5779,7 +5831,7 @@
         <v>10</v>
       </c>
       <c r="G133">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-10</v>
       </c>
       <c r="H133" s="1">
@@ -5789,7 +5841,7 @@
         <v>250</v>
       </c>
       <c r="K133" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>437.91000000000008</v>
       </c>
     </row>
@@ -5807,7 +5859,7 @@
         <v>16</v>
       </c>
       <c r="G134">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>18</v>
       </c>
       <c r="H134" s="1">
@@ -5817,7 +5869,7 @@
         <v>250</v>
       </c>
       <c r="K134" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>455.91000000000008</v>
       </c>
     </row>
@@ -5835,7 +5887,7 @@
         <v>10</v>
       </c>
       <c r="G135">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-20</v>
       </c>
       <c r="H135" s="1">
@@ -5845,7 +5897,7 @@
         <v>250</v>
       </c>
       <c r="K135" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>435.91000000000008</v>
       </c>
     </row>
@@ -5863,7 +5915,7 @@
         <v>16</v>
       </c>
       <c r="G136">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>17.200000000000003</v>
       </c>
       <c r="H136" s="1">
@@ -5873,7 +5925,7 @@
         <v>250</v>
       </c>
       <c r="K136" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>453.11000000000007</v>
       </c>
     </row>
@@ -5891,7 +5943,7 @@
         <v>16</v>
       </c>
       <c r="G137">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>18</v>
       </c>
       <c r="H137" s="1">
@@ -5901,7 +5953,7 @@
         <v>250</v>
       </c>
       <c r="K137" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>471.11000000000007</v>
       </c>
     </row>
@@ -5919,7 +5971,7 @@
         <v>16</v>
       </c>
       <c r="G138">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>25</v>
       </c>
       <c r="H138" s="1">
@@ -5929,8 +5981,288 @@
         <v>250</v>
       </c>
       <c r="K138" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>496.11000000000007</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139">
+        <v>3.6</v>
+      </c>
+      <c r="C139">
+        <v>20</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="39"/>
+        <v>-20</v>
+      </c>
+      <c r="H139" s="1">
+        <v>45329</v>
+      </c>
+      <c r="J139">
+        <v>250</v>
+      </c>
+      <c r="K139" s="6">
+        <f t="shared" ref="K139:K148" si="45">K138+G139</f>
+        <v>476.11000000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140">
+        <v>1.71</v>
+      </c>
+      <c r="C140">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="39"/>
+        <v>-20</v>
+      </c>
+      <c r="H140" s="1">
+        <v>45330</v>
+      </c>
+      <c r="J140">
+        <v>250</v>
+      </c>
+      <c r="K140" s="6">
+        <f t="shared" si="45"/>
+        <v>456.11000000000007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141">
+        <v>1.33</v>
+      </c>
+      <c r="C141">
+        <v>20</v>
+      </c>
+      <c r="F141" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="39"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="H141" s="1">
+        <v>45330</v>
+      </c>
+      <c r="J141">
+        <v>250</v>
+      </c>
+      <c r="K141" s="6">
+        <f t="shared" si="45"/>
+        <v>462.71000000000009</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142">
+        <v>1.9</v>
+      </c>
+      <c r="C142">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="39"/>
+        <v>-20</v>
+      </c>
+      <c r="H142" s="1">
+        <v>45330</v>
+      </c>
+      <c r="J142">
+        <v>250</v>
+      </c>
+      <c r="K142" s="6">
+        <f t="shared" si="45"/>
+        <v>442.71000000000009</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>125</v>
+      </c>
+      <c r="B143">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C143">
+        <v>20</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="39"/>
+        <v>-20</v>
+      </c>
+      <c r="H143" s="1">
+        <v>45330</v>
+      </c>
+      <c r="J143">
+        <v>250</v>
+      </c>
+      <c r="K143" s="6">
+        <f t="shared" si="45"/>
+        <v>422.71000000000009</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>63</v>
+      </c>
+      <c r="B144">
+        <v>2.25</v>
+      </c>
+      <c r="C144">
+        <v>20</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="39"/>
+        <v>-20</v>
+      </c>
+      <c r="H144" s="1">
+        <v>45330</v>
+      </c>
+      <c r="J144">
+        <v>250</v>
+      </c>
+      <c r="K144" s="6">
+        <f t="shared" si="45"/>
+        <v>402.71000000000009</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>102</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>20</v>
+      </c>
+      <c r="F145" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="39"/>
+        <v>20</v>
+      </c>
+      <c r="H145" s="1">
+        <v>45330</v>
+      </c>
+      <c r="J145">
+        <v>250</v>
+      </c>
+      <c r="K145" s="6">
+        <f t="shared" si="45"/>
+        <v>422.71000000000009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>126</v>
+      </c>
+      <c r="B146">
+        <v>1.9</v>
+      </c>
+      <c r="C146">
+        <v>20</v>
+      </c>
+      <c r="F146" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="39"/>
+        <v>18</v>
+      </c>
+      <c r="H146" s="1">
+        <v>45330</v>
+      </c>
+      <c r="J146">
+        <v>250</v>
+      </c>
+      <c r="K146" s="6">
+        <f t="shared" si="45"/>
+        <v>440.71000000000009</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>127</v>
+      </c>
+      <c r="B147">
+        <v>1.4</v>
+      </c>
+      <c r="C147">
+        <v>20</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="39"/>
+        <v>-20</v>
+      </c>
+      <c r="H147" s="1">
+        <v>45330</v>
+      </c>
+      <c r="J147">
+        <v>250</v>
+      </c>
+      <c r="K147" s="6">
+        <f t="shared" si="45"/>
+        <v>420.71000000000009</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148">
+        <v>1.9</v>
+      </c>
+      <c r="C148">
+        <v>20</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="39"/>
+        <v>18</v>
+      </c>
+      <c r="H148" s="1">
+        <v>45330</v>
+      </c>
+      <c r="J148">
+        <v>250</v>
+      </c>
+      <c r="K148" s="6">
+        <f t="shared" si="45"/>
+        <v>438.71000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F3650-E937-42A6-9E2C-957221C02A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F963435-FC6B-492D-B5AB-7FF9F7278422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
   <si>
     <t>Date</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Bruins Over 6.5</t>
   </si>
   <si>
-    <t>76ers Over 237</t>
-  </si>
-  <si>
     <t>Spurs Under 234.5</t>
   </si>
   <si>
@@ -445,6 +442,30 @@
   </si>
   <si>
     <t>Bucks Over 228.5</t>
+  </si>
+  <si>
+    <t>Maple Leafs Over 6.5</t>
+  </si>
+  <si>
+    <t>Coyotes Ml</t>
+  </si>
+  <si>
+    <t>Coyotes Over 5.5</t>
+  </si>
+  <si>
+    <t>Lightning Over 6.5</t>
+  </si>
+  <si>
+    <t>Warriors ML</t>
+  </si>
+  <si>
+    <t>Bucks ML</t>
+  </si>
+  <si>
+    <t>Hawks ML</t>
+  </si>
+  <si>
+    <t>Pacers Over 238.5</t>
   </si>
 </sst>
 </file>
@@ -832,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+    <sheetView tabSelected="1" topLeftCell="H50" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,7 +972,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.7548400000000004</v>
+        <v>0.72444000000000019</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -1117,15 +1138,6 @@
         <f t="shared" si="3"/>
         <v>17.7</v>
       </c>
-      <c r="U5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5">
-        <v>1.86</v>
-      </c>
-      <c r="W5">
-        <v>20</v>
-      </c>
       <c r="AB5" s="1">
         <v>45315</v>
       </c>
@@ -1180,15 +1192,6 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U6" t="s">
-        <v>98</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>20</v>
-      </c>
       <c r="AB6" s="1">
         <v>45315</v>
       </c>
@@ -1243,15 +1246,6 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U7" t="s">
-        <v>99</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
-      <c r="W7">
-        <v>10</v>
-      </c>
       <c r="AB7" s="1">
         <v>45315</v>
       </c>
@@ -3749,7 +3743,7 @@
         <v>45329</v>
       </c>
       <c r="P59" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" ref="Q59:Q60" si="34">Q58+R59</f>
@@ -3790,7 +3784,7 @@
         <v>45330</v>
       </c>
       <c r="P60" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="34"/>
@@ -3828,6 +3822,20 @@
         <f t="shared" si="36"/>
         <v>461.37</v>
       </c>
+      <c r="O61" s="1">
+        <v>45331</v>
+      </c>
+      <c r="P61" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q61" s="2">
+        <f t="shared" ref="Q61:Q63" si="37">Q60+R61</f>
+        <v>438.70999999999992</v>
+      </c>
+      <c r="R61">
+        <f t="shared" ref="R61:R63" si="38">SUMIF(H60:H184, O61, G60:G184)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -3856,6 +3864,20 @@
         <f t="shared" si="36"/>
         <v>441.37</v>
       </c>
+      <c r="O62" s="1">
+        <v>45332</v>
+      </c>
+      <c r="P62" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q62" s="2">
+        <f t="shared" si="37"/>
+        <v>428.90999999999991</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="38"/>
+        <v>-9.8000000000000043</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -3884,6 +3906,20 @@
         <f t="shared" si="36"/>
         <v>421.37</v>
       </c>
+      <c r="O63" s="1">
+        <v>45333</v>
+      </c>
+      <c r="P63" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q63" s="2">
+        <f t="shared" si="37"/>
+        <v>442.1099999999999</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="38"/>
+        <v>13.199999999999996</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -3912,6 +3948,20 @@
         <f t="shared" si="36"/>
         <v>391.37</v>
       </c>
+      <c r="O64" s="1">
+        <v>45334</v>
+      </c>
+      <c r="P64" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q64" s="2">
+        <f t="shared" ref="Q64" si="39">Q63+R64</f>
+        <v>431.1099999999999</v>
+      </c>
+      <c r="R64">
+        <f t="shared" ref="R64" si="40">SUMIF(H63:H187, O64, G63:G187)</f>
+        <v>-11</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -3937,7 +3987,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="37">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="41">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3965,7 +4015,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3993,7 +4043,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>420.17</v>
       </c>
     </row>
@@ -4021,7 +4071,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>461.41</v>
       </c>
     </row>
@@ -4049,7 +4099,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>441.41</v>
       </c>
     </row>
@@ -4077,7 +4127,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -4105,7 +4155,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K118" si="38">K70+G71</f>
+        <f t="shared" ref="K71:K118" si="42">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -4133,7 +4183,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>443.41</v>
       </c>
     </row>
@@ -4161,7 +4211,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -4189,7 +4239,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4217,7 +4267,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -4245,7 +4295,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4273,7 +4323,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>455.21000000000004</v>
       </c>
     </row>
@@ -4301,7 +4351,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>471.21000000000004</v>
       </c>
     </row>
@@ -4329,7 +4379,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>451.21000000000004</v>
       </c>
     </row>
@@ -4357,7 +4407,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4385,7 +4435,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4413,7 +4463,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4441,7 +4491,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>448.51000000000005</v>
       </c>
     </row>
@@ -4469,7 +4519,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>453.01000000000005</v>
       </c>
     </row>
@@ -4497,7 +4547,7 @@
         <v>250</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>433.01000000000005</v>
       </c>
     </row>
@@ -4525,7 +4575,7 @@
         <v>250</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>442.01000000000005</v>
       </c>
     </row>
@@ -4553,7 +4603,7 @@
         <v>250</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>422.01000000000005</v>
       </c>
     </row>
@@ -4581,7 +4631,7 @@
         <v>250</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>438.01000000000005</v>
       </c>
     </row>
@@ -4609,7 +4659,7 @@
         <v>250</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>442.76000000000005</v>
       </c>
     </row>
@@ -4637,7 +4687,7 @@
         <v>250</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>437.76000000000005</v>
       </c>
     </row>
@@ -4665,7 +4715,7 @@
         <v>250</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>432.76000000000005</v>
       </c>
     </row>
@@ -4693,7 +4743,7 @@
         <v>250</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>449.96000000000004</v>
       </c>
     </row>
@@ -4721,7 +4771,7 @@
         <v>250</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>474.96000000000004</v>
       </c>
     </row>
@@ -4749,7 +4799,7 @@
         <v>250</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>479.46000000000004</v>
       </c>
     </row>
@@ -4777,7 +4827,7 @@
         <v>250</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>474.46000000000004</v>
       </c>
     </row>
@@ -4805,7 +4855,7 @@
         <v>250</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>493.46000000000004</v>
       </c>
     </row>
@@ -4833,7 +4883,7 @@
         <v>250</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>473.46000000000004</v>
       </c>
     </row>
@@ -4861,7 +4911,7 @@
         <v>250</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>491.46000000000004</v>
       </c>
     </row>
@@ -4889,7 +4939,7 @@
         <v>250</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>518.46</v>
       </c>
     </row>
@@ -4917,7 +4967,7 @@
         <v>250</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>520.36</v>
       </c>
     </row>
@@ -4945,7 +4995,7 @@
         <v>250</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>544.36</v>
       </c>
     </row>
@@ -4973,7 +5023,7 @@
         <v>250</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>524.36</v>
       </c>
     </row>
@@ -5001,7 +5051,7 @@
         <v>250</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>504.36</v>
       </c>
     </row>
@@ -5029,7 +5079,7 @@
         <v>250</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>520.36</v>
       </c>
     </row>
@@ -5057,7 +5107,7 @@
         <v>250</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>537.56000000000006</v>
       </c>
     </row>
@@ -5075,7 +5125,7 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <f t="shared" ref="G106:G148" si="39">IF(F106="Y",(C106*B106)-C106,-C106)</f>
+        <f t="shared" ref="G106:G158" si="43">IF(F106="Y",(C106*B106)-C106,-C106)</f>
         <v>-20</v>
       </c>
       <c r="H106" s="1">
@@ -5085,7 +5135,7 @@
         <v>250</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>517.56000000000006</v>
       </c>
     </row>
@@ -5113,7 +5163,7 @@
         <v>250</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>497.56000000000006</v>
       </c>
     </row>
@@ -5141,7 +5191,7 @@
         <v>250</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>477.56000000000006</v>
       </c>
     </row>
@@ -5169,13 +5219,13 @@
         <v>250</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>467.56000000000006</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110">
         <v>1.9</v>
@@ -5197,13 +5247,13 @@
         <v>250</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>476.56000000000006</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B111">
         <v>2.5499999999999998</v>
@@ -5215,7 +5265,7 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H111" s="1">
@@ -5225,7 +5275,7 @@
         <v>250</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>456.56000000000006</v>
       </c>
     </row>
@@ -5243,7 +5293,7 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H112" s="1">
@@ -5253,7 +5303,7 @@
         <v>250</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>436.56000000000006</v>
       </c>
     </row>
@@ -5271,7 +5321,7 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H113" s="1">
@@ -5281,13 +5331,13 @@
         <v>250</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>416.56000000000006</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B114">
         <v>1.8</v>
@@ -5299,7 +5349,7 @@
         <v>16</v>
       </c>
       <c r="G114">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="H114" s="1">
@@ -5309,7 +5359,7 @@
         <v>250</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>432.56000000000006</v>
       </c>
     </row>
@@ -5327,7 +5377,7 @@
         <v>16</v>
       </c>
       <c r="G115">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H115" s="1">
@@ -5337,13 +5387,13 @@
         <v>250</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>449.16000000000008</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B116">
         <v>1.9</v>
@@ -5355,7 +5405,7 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-10</v>
       </c>
       <c r="H116" s="1">
@@ -5365,7 +5415,7 @@
         <v>250</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>439.16000000000008</v>
       </c>
     </row>
@@ -5383,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="G117">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H117" s="1">
@@ -5393,13 +5443,13 @@
         <v>250</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>419.16000000000008</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B118">
         <v>1.9</v>
@@ -5411,7 +5461,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="H118" s="1">
@@ -5421,13 +5471,13 @@
         <v>250</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>428.16000000000008</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119">
         <v>2.35</v>
@@ -5439,7 +5489,7 @@
         <v>16</v>
       </c>
       <c r="G119">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>27</v>
       </c>
       <c r="H119" s="1">
@@ -5449,7 +5499,7 @@
         <v>250</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" ref="K119" si="40">K118+G119</f>
+        <f t="shared" ref="K119" si="44">K118+G119</f>
         <v>455.16000000000008</v>
       </c>
     </row>
@@ -5467,7 +5517,7 @@
         <v>16</v>
       </c>
       <c r="G120">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>11</v>
       </c>
       <c r="H120" s="1">
@@ -5477,13 +5527,13 @@
         <v>250</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" ref="K120:K121" si="41">K119+G120</f>
+        <f t="shared" ref="K120:K121" si="45">K119+G120</f>
         <v>466.16000000000008</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121">
         <v>2.0499999999999998</v>
@@ -5495,7 +5545,7 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H121" s="1">
@@ -5505,13 +5555,13 @@
         <v>250</v>
       </c>
       <c r="K121" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>446.16000000000008</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122">
         <v>1.9</v>
@@ -5523,7 +5573,7 @@
         <v>10</v>
       </c>
       <c r="G122">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-10</v>
       </c>
       <c r="H122" s="1">
@@ -5533,13 +5583,13 @@
         <v>250</v>
       </c>
       <c r="K122" s="6">
-        <f t="shared" ref="K122:K128" si="42">K121+G122</f>
+        <f t="shared" ref="K122:K128" si="46">K121+G122</f>
         <v>436.16000000000008</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B123">
         <v>1.9</v>
@@ -5551,7 +5601,7 @@
         <v>10</v>
       </c>
       <c r="G123">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-10</v>
       </c>
       <c r="H123" s="1">
@@ -5561,13 +5611,13 @@
         <v>250</v>
       </c>
       <c r="K123" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>426.16000000000008</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B124">
         <v>1.5</v>
@@ -5579,7 +5629,7 @@
         <v>16</v>
       </c>
       <c r="G124">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="H124" s="1">
@@ -5589,13 +5639,13 @@
         <v>250</v>
       </c>
       <c r="K124" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>436.16000000000008</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B125">
         <v>3.9</v>
@@ -5607,7 +5657,7 @@
         <v>10</v>
       </c>
       <c r="G125">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-10</v>
       </c>
       <c r="H125" s="1">
@@ -5617,13 +5667,13 @@
         <v>250</v>
       </c>
       <c r="K125" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>426.16000000000008</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B126">
         <v>1.62</v>
@@ -5635,7 +5685,7 @@
         <v>16</v>
       </c>
       <c r="G126">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="H126" s="1">
@@ -5645,13 +5695,13 @@
         <v>250</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>432.36000000000007</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B127">
         <v>1.9</v>
@@ -5663,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="G127">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="H127" s="1">
@@ -5673,13 +5723,13 @@
         <v>250</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>441.36000000000007</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B128">
         <v>1.9</v>
@@ -5691,7 +5741,7 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-10</v>
       </c>
       <c r="H128" s="1">
@@ -5701,13 +5751,13 @@
         <v>250</v>
       </c>
       <c r="K128" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>431.36000000000007</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B129">
         <v>1.95</v>
@@ -5719,7 +5769,7 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-15</v>
       </c>
       <c r="H129" s="1">
@@ -5729,13 +5779,13 @@
         <v>250</v>
       </c>
       <c r="K129" s="6">
-        <f t="shared" ref="K129:K130" si="43">K128+G129</f>
+        <f t="shared" ref="K129:K130" si="47">K128+G129</f>
         <v>416.36000000000007</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B130">
         <v>2.4500000000000002</v>
@@ -5747,7 +5797,7 @@
         <v>16</v>
       </c>
       <c r="G130">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>21.75</v>
       </c>
       <c r="H130" s="1">
@@ -5757,13 +5807,13 @@
         <v>250</v>
       </c>
       <c r="K130" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>438.11000000000007</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B131">
         <v>1.68</v>
@@ -5775,7 +5825,7 @@
         <v>10</v>
       </c>
       <c r="G131">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-10</v>
       </c>
       <c r="H131" s="1">
@@ -5785,13 +5835,13 @@
         <v>250</v>
       </c>
       <c r="K131" s="6">
-        <f t="shared" ref="K131:K138" si="44">K130+G131</f>
+        <f t="shared" ref="K131:K138" si="48">K130+G131</f>
         <v>428.11000000000007</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B132">
         <v>1.66</v>
@@ -5803,7 +5853,7 @@
         <v>16</v>
       </c>
       <c r="G132">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>19.799999999999997</v>
       </c>
       <c r="H132" s="1">
@@ -5813,13 +5863,13 @@
         <v>250</v>
       </c>
       <c r="K132" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>447.91000000000008</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B133">
         <v>2.35</v>
@@ -5831,7 +5881,7 @@
         <v>10</v>
       </c>
       <c r="G133">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-10</v>
       </c>
       <c r="H133" s="1">
@@ -5841,13 +5891,13 @@
         <v>250</v>
       </c>
       <c r="K133" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>437.91000000000008</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B134">
         <v>1.9</v>
@@ -5859,7 +5909,7 @@
         <v>16</v>
       </c>
       <c r="G134">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="H134" s="1">
@@ -5869,7 +5919,7 @@
         <v>250</v>
       </c>
       <c r="K134" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>455.91000000000008</v>
       </c>
     </row>
@@ -5887,7 +5937,7 @@
         <v>10</v>
       </c>
       <c r="G135">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H135" s="1">
@@ -5897,13 +5947,13 @@
         <v>250</v>
       </c>
       <c r="K135" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>435.91000000000008</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136">
         <v>1.86</v>
@@ -5915,7 +5965,7 @@
         <v>16</v>
       </c>
       <c r="G136">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>17.200000000000003</v>
       </c>
       <c r="H136" s="1">
@@ -5925,7 +5975,7 @@
         <v>250</v>
       </c>
       <c r="K136" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>453.11000000000007</v>
       </c>
     </row>
@@ -5943,7 +5993,7 @@
         <v>16</v>
       </c>
       <c r="G137">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="H137" s="1">
@@ -5953,7 +6003,7 @@
         <v>250</v>
       </c>
       <c r="K137" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>471.11000000000007</v>
       </c>
     </row>
@@ -5971,7 +6021,7 @@
         <v>16</v>
       </c>
       <c r="G138">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>25</v>
       </c>
       <c r="H138" s="1">
@@ -5981,13 +6031,13 @@
         <v>250</v>
       </c>
       <c r="K138" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>496.11000000000007</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B139">
         <v>3.6</v>
@@ -5999,7 +6049,7 @@
         <v>10</v>
       </c>
       <c r="G139">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H139" s="1">
@@ -6009,13 +6059,13 @@
         <v>250</v>
       </c>
       <c r="K139" s="6">
-        <f t="shared" ref="K139:K148" si="45">K138+G139</f>
+        <f t="shared" ref="K139:K148" si="49">K138+G139</f>
         <v>476.11000000000007</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B140">
         <v>1.71</v>
@@ -6027,7 +6077,7 @@
         <v>10</v>
       </c>
       <c r="G140">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H140" s="1">
@@ -6037,13 +6087,13 @@
         <v>250</v>
       </c>
       <c r="K140" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>456.11000000000007</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B141">
         <v>1.33</v>
@@ -6055,7 +6105,7 @@
         <v>16</v>
       </c>
       <c r="G141">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>6.6000000000000014</v>
       </c>
       <c r="H141" s="1">
@@ -6065,13 +6115,13 @@
         <v>250</v>
       </c>
       <c r="K141" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>462.71000000000009</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B142">
         <v>1.9</v>
@@ -6083,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="G142">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H142" s="1">
@@ -6093,13 +6143,13 @@
         <v>250</v>
       </c>
       <c r="K142" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>442.71000000000009</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B143">
         <v>2.2000000000000002</v>
@@ -6111,7 +6161,7 @@
         <v>10</v>
       </c>
       <c r="G143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H143" s="1">
@@ -6121,7 +6171,7 @@
         <v>250</v>
       </c>
       <c r="K143" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>422.71000000000009</v>
       </c>
     </row>
@@ -6139,7 +6189,7 @@
         <v>10</v>
       </c>
       <c r="G144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H144" s="1">
@@ -6149,13 +6199,13 @@
         <v>250</v>
       </c>
       <c r="K144" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>402.71000000000009</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -6167,7 +6217,7 @@
         <v>16</v>
       </c>
       <c r="G145">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="H145" s="1">
@@ -6177,13 +6227,13 @@
         <v>250</v>
       </c>
       <c r="K145" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>422.71000000000009</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B146">
         <v>1.9</v>
@@ -6195,7 +6245,7 @@
         <v>16</v>
       </c>
       <c r="G146">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="H146" s="1">
@@ -6205,13 +6255,13 @@
         <v>250</v>
       </c>
       <c r="K146" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>440.71000000000009</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B147">
         <v>1.4</v>
@@ -6223,7 +6273,7 @@
         <v>10</v>
       </c>
       <c r="G147">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-20</v>
       </c>
       <c r="H147" s="1">
@@ -6233,13 +6283,13 @@
         <v>250</v>
       </c>
       <c r="K147" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>420.71000000000009</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B148">
         <v>1.9</v>
@@ -6251,7 +6301,7 @@
         <v>16</v>
       </c>
       <c r="G148">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="H148" s="1">
@@ -6261,8 +6311,288 @@
         <v>250</v>
       </c>
       <c r="K148" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>438.71000000000009</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>128</v>
+      </c>
+      <c r="B149">
+        <v>1.77</v>
+      </c>
+      <c r="C149">
+        <v>20</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="43"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="H149" s="1">
+        <v>45332</v>
+      </c>
+      <c r="J149">
+        <v>250</v>
+      </c>
+      <c r="K149" s="6">
+        <f t="shared" ref="K149:K158" si="50">K148+G149</f>
+        <v>454.11000000000007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="43"/>
+        <v>-20</v>
+      </c>
+      <c r="H150" s="1">
+        <v>45332</v>
+      </c>
+      <c r="J150">
+        <v>250</v>
+      </c>
+      <c r="K150" s="6">
+        <f t="shared" si="50"/>
+        <v>434.11000000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>130</v>
+      </c>
+      <c r="B151">
+        <v>1.74</v>
+      </c>
+      <c r="C151">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="43"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="H151" s="1">
+        <v>45332</v>
+      </c>
+      <c r="J151">
+        <v>250</v>
+      </c>
+      <c r="K151" s="6">
+        <f t="shared" si="50"/>
+        <v>448.91000000000008</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152">
+        <v>1.8</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="43"/>
+        <v>-20</v>
+      </c>
+      <c r="H152" s="1">
+        <v>45332</v>
+      </c>
+      <c r="J152">
+        <v>250</v>
+      </c>
+      <c r="K152" s="6">
+        <f t="shared" si="50"/>
+        <v>428.91000000000008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153">
+        <v>1.66</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="43"/>
+        <v>13.199999999999996</v>
+      </c>
+      <c r="H153" s="1">
+        <v>45333</v>
+      </c>
+      <c r="J153">
+        <v>250</v>
+      </c>
+      <c r="K153" s="6">
+        <f t="shared" si="50"/>
+        <v>442.11000000000007</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>110</v>
+      </c>
+      <c r="B154">
+        <v>1.62</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="43"/>
+        <v>-10</v>
+      </c>
+      <c r="H154" s="1">
+        <v>45334</v>
+      </c>
+      <c r="J154">
+        <v>250</v>
+      </c>
+      <c r="K154" s="6">
+        <f t="shared" si="50"/>
+        <v>432.11000000000007</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155">
+        <v>1.95</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="43"/>
+        <v>9.5</v>
+      </c>
+      <c r="H155" s="1">
+        <v>45334</v>
+      </c>
+      <c r="J155">
+        <v>250</v>
+      </c>
+      <c r="K155" s="6">
+        <f t="shared" si="50"/>
+        <v>441.61000000000007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156">
+        <v>1.95</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="43"/>
+        <v>9.5</v>
+      </c>
+      <c r="H156" s="1">
+        <v>45334</v>
+      </c>
+      <c r="J156">
+        <v>250</v>
+      </c>
+      <c r="K156" s="6">
+        <f t="shared" si="50"/>
+        <v>451.11000000000007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>135</v>
+      </c>
+      <c r="B157">
+        <v>1.9</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="43"/>
+        <v>-10</v>
+      </c>
+      <c r="H157" s="1">
+        <v>45334</v>
+      </c>
+      <c r="J157">
+        <v>250</v>
+      </c>
+      <c r="K157" s="6">
+        <f t="shared" si="50"/>
+        <v>441.11000000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>134</v>
+      </c>
+      <c r="B158">
+        <v>1.64</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="43"/>
+        <v>-10</v>
+      </c>
+      <c r="H158" s="1">
+        <v>45334</v>
+      </c>
+      <c r="J158">
+        <v>250</v>
+      </c>
+      <c r="K158" s="6">
+        <f t="shared" si="50"/>
+        <v>431.11000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F963435-FC6B-492D-B5AB-7FF9F7278422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C5E53-5713-4962-8A6F-B84F0BC7650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>Pacers Over 238.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Jackets </t>
+  </si>
+  <si>
+    <t>Oilers Over 6.5</t>
   </si>
 </sst>
 </file>
@@ -853,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AB158"/>
+  <dimension ref="A1:AB162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H50" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +978,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.72444000000000019</v>
+        <v>0.70444000000000018</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -3963,7 +3969,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3990,8 +3996,22 @@
         <f t="shared" ref="K65:K70" si="41">K64+G65</f>
         <v>405.17</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O65" s="1">
+        <v>45335</v>
+      </c>
+      <c r="P65" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" ref="Q65" si="42">Q64+R65</f>
+        <v>426.1099999999999</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ref="R65" si="43">SUMIF(H64:H188, O65, G64:G188)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -4019,7 +4039,7 @@
         <v>412.77000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -4047,7 +4067,7 @@
         <v>420.17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -4075,7 +4095,7 @@
         <v>461.41</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -4103,7 +4123,7 @@
         <v>441.41</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>61</v>
       </c>
@@ -4131,7 +4151,7 @@
         <v>458.01000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4155,11 +4175,11 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K118" si="42">K70+G71</f>
+        <f t="shared" ref="K71:K118" si="44">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4183,11 +4203,11 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>443.41</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4211,11 +4231,11 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>460.01000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -4239,11 +4259,11 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>475.21000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4267,11 +4287,11 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>495.21000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -4295,11 +4315,11 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>475.21000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -4323,11 +4343,11 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>455.21000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -4351,11 +4371,11 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>471.21000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -4379,11 +4399,11 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>451.21000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>54</v>
       </c>
@@ -4407,7 +4427,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4435,7 +4455,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4463,7 +4483,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4491,7 +4511,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>448.51000000000005</v>
       </c>
     </row>
@@ -4519,7 +4539,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>453.01000000000005</v>
       </c>
     </row>
@@ -4547,7 +4567,7 @@
         <v>250</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>433.01000000000005</v>
       </c>
     </row>
@@ -4575,7 +4595,7 @@
         <v>250</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>442.01000000000005</v>
       </c>
     </row>
@@ -4603,7 +4623,7 @@
         <v>250</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>422.01000000000005</v>
       </c>
     </row>
@@ -4631,7 +4651,7 @@
         <v>250</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>438.01000000000005</v>
       </c>
     </row>
@@ -4659,7 +4679,7 @@
         <v>250</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>442.76000000000005</v>
       </c>
     </row>
@@ -4687,7 +4707,7 @@
         <v>250</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>437.76000000000005</v>
       </c>
     </row>
@@ -4715,7 +4735,7 @@
         <v>250</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>432.76000000000005</v>
       </c>
     </row>
@@ -4743,7 +4763,7 @@
         <v>250</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>449.96000000000004</v>
       </c>
     </row>
@@ -4771,7 +4791,7 @@
         <v>250</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>474.96000000000004</v>
       </c>
     </row>
@@ -4799,7 +4819,7 @@
         <v>250</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>479.46000000000004</v>
       </c>
     </row>
@@ -4827,7 +4847,7 @@
         <v>250</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>474.46000000000004</v>
       </c>
     </row>
@@ -4855,7 +4875,7 @@
         <v>250</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>493.46000000000004</v>
       </c>
     </row>
@@ -4883,7 +4903,7 @@
         <v>250</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>473.46000000000004</v>
       </c>
     </row>
@@ -4911,7 +4931,7 @@
         <v>250</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>491.46000000000004</v>
       </c>
     </row>
@@ -4939,7 +4959,7 @@
         <v>250</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>518.46</v>
       </c>
     </row>
@@ -4967,7 +4987,7 @@
         <v>250</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>520.36</v>
       </c>
     </row>
@@ -4995,7 +5015,7 @@
         <v>250</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>544.36</v>
       </c>
     </row>
@@ -5023,7 +5043,7 @@
         <v>250</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>524.36</v>
       </c>
     </row>
@@ -5051,7 +5071,7 @@
         <v>250</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>504.36</v>
       </c>
     </row>
@@ -5079,7 +5099,7 @@
         <v>250</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>520.36</v>
       </c>
     </row>
@@ -5107,7 +5127,7 @@
         <v>250</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>537.56000000000006</v>
       </c>
     </row>
@@ -5125,7 +5145,7 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <f t="shared" ref="G106:G158" si="43">IF(F106="Y",(C106*B106)-C106,-C106)</f>
+        <f t="shared" ref="G106:G162" si="45">IF(F106="Y",(C106*B106)-C106,-C106)</f>
         <v>-20</v>
       </c>
       <c r="H106" s="1">
@@ -5135,7 +5155,7 @@
         <v>250</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>517.56000000000006</v>
       </c>
     </row>
@@ -5163,7 +5183,7 @@
         <v>250</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>497.56000000000006</v>
       </c>
     </row>
@@ -5191,7 +5211,7 @@
         <v>250</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>477.56000000000006</v>
       </c>
     </row>
@@ -5219,7 +5239,7 @@
         <v>250</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>467.56000000000006</v>
       </c>
     </row>
@@ -5247,7 +5267,7 @@
         <v>250</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>476.56000000000006</v>
       </c>
     </row>
@@ -5265,7 +5285,7 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H111" s="1">
@@ -5275,7 +5295,7 @@
         <v>250</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>456.56000000000006</v>
       </c>
     </row>
@@ -5293,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H112" s="1">
@@ -5303,7 +5323,7 @@
         <v>250</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>436.56000000000006</v>
       </c>
     </row>
@@ -5321,7 +5341,7 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H113" s="1">
@@ -5331,7 +5351,7 @@
         <v>250</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>416.56000000000006</v>
       </c>
     </row>
@@ -5349,7 +5369,7 @@
         <v>16</v>
       </c>
       <c r="G114">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>16</v>
       </c>
       <c r="H114" s="1">
@@ -5359,7 +5379,7 @@
         <v>250</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>432.56000000000006</v>
       </c>
     </row>
@@ -5377,7 +5397,7 @@
         <v>16</v>
       </c>
       <c r="G115">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H115" s="1">
@@ -5387,7 +5407,7 @@
         <v>250</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>449.16000000000008</v>
       </c>
     </row>
@@ -5405,7 +5425,7 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H116" s="1">
@@ -5415,7 +5435,7 @@
         <v>250</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>439.16000000000008</v>
       </c>
     </row>
@@ -5433,7 +5453,7 @@
         <v>10</v>
       </c>
       <c r="G117">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H117" s="1">
@@ -5443,7 +5463,7 @@
         <v>250</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>419.16000000000008</v>
       </c>
     </row>
@@ -5461,7 +5481,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="H118" s="1">
@@ -5471,7 +5491,7 @@
         <v>250</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>428.16000000000008</v>
       </c>
     </row>
@@ -5489,7 +5509,7 @@
         <v>16</v>
       </c>
       <c r="G119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>27</v>
       </c>
       <c r="H119" s="1">
@@ -5499,7 +5519,7 @@
         <v>250</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" ref="K119" si="44">K118+G119</f>
+        <f t="shared" ref="K119" si="46">K118+G119</f>
         <v>455.16000000000008</v>
       </c>
     </row>
@@ -5517,7 +5537,7 @@
         <v>16</v>
       </c>
       <c r="G120">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="H120" s="1">
@@ -5527,7 +5547,7 @@
         <v>250</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" ref="K120:K121" si="45">K119+G120</f>
+        <f t="shared" ref="K120:K121" si="47">K119+G120</f>
         <v>466.16000000000008</v>
       </c>
     </row>
@@ -5545,7 +5565,7 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H121" s="1">
@@ -5555,7 +5575,7 @@
         <v>250</v>
       </c>
       <c r="K121" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>446.16000000000008</v>
       </c>
     </row>
@@ -5573,7 +5593,7 @@
         <v>10</v>
       </c>
       <c r="G122">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H122" s="1">
@@ -5583,7 +5603,7 @@
         <v>250</v>
       </c>
       <c r="K122" s="6">
-        <f t="shared" ref="K122:K128" si="46">K121+G122</f>
+        <f t="shared" ref="K122:K128" si="48">K121+G122</f>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5601,7 +5621,7 @@
         <v>10</v>
       </c>
       <c r="G123">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H123" s="1">
@@ -5611,7 +5631,7 @@
         <v>250</v>
       </c>
       <c r="K123" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5629,7 +5649,7 @@
         <v>16</v>
       </c>
       <c r="G124">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="H124" s="1">
@@ -5639,7 +5659,7 @@
         <v>250</v>
       </c>
       <c r="K124" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5657,7 +5677,7 @@
         <v>10</v>
       </c>
       <c r="G125">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H125" s="1">
@@ -5667,7 +5687,7 @@
         <v>250</v>
       </c>
       <c r="K125" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5685,7 +5705,7 @@
         <v>16</v>
       </c>
       <c r="G126">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="H126" s="1">
@@ -5695,7 +5715,7 @@
         <v>250</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>432.36000000000007</v>
       </c>
     </row>
@@ -5713,7 +5733,7 @@
         <v>16</v>
       </c>
       <c r="G127">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="H127" s="1">
@@ -5723,7 +5743,7 @@
         <v>250</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>441.36000000000007</v>
       </c>
     </row>
@@ -5741,7 +5761,7 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H128" s="1">
@@ -5751,7 +5771,7 @@
         <v>250</v>
       </c>
       <c r="K128" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>431.36000000000007</v>
       </c>
     </row>
@@ -5769,7 +5789,7 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-15</v>
       </c>
       <c r="H129" s="1">
@@ -5779,7 +5799,7 @@
         <v>250</v>
       </c>
       <c r="K129" s="6">
-        <f t="shared" ref="K129:K130" si="47">K128+G129</f>
+        <f t="shared" ref="K129:K130" si="49">K128+G129</f>
         <v>416.36000000000007</v>
       </c>
     </row>
@@ -5797,7 +5817,7 @@
         <v>16</v>
       </c>
       <c r="G130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>21.75</v>
       </c>
       <c r="H130" s="1">
@@ -5807,7 +5827,7 @@
         <v>250</v>
       </c>
       <c r="K130" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>438.11000000000007</v>
       </c>
     </row>
@@ -5825,7 +5845,7 @@
         <v>10</v>
       </c>
       <c r="G131">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H131" s="1">
@@ -5835,7 +5855,7 @@
         <v>250</v>
       </c>
       <c r="K131" s="6">
-        <f t="shared" ref="K131:K138" si="48">K130+G131</f>
+        <f t="shared" ref="K131:K138" si="50">K130+G131</f>
         <v>428.11000000000007</v>
       </c>
     </row>
@@ -5853,7 +5873,7 @@
         <v>16</v>
       </c>
       <c r="G132">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>19.799999999999997</v>
       </c>
       <c r="H132" s="1">
@@ -5863,7 +5883,7 @@
         <v>250</v>
       </c>
       <c r="K132" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>447.91000000000008</v>
       </c>
     </row>
@@ -5881,7 +5901,7 @@
         <v>10</v>
       </c>
       <c r="G133">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H133" s="1">
@@ -5891,7 +5911,7 @@
         <v>250</v>
       </c>
       <c r="K133" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>437.91000000000008</v>
       </c>
     </row>
@@ -5909,7 +5929,7 @@
         <v>16</v>
       </c>
       <c r="G134">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="H134" s="1">
@@ -5919,7 +5939,7 @@
         <v>250</v>
       </c>
       <c r="K134" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>455.91000000000008</v>
       </c>
     </row>
@@ -5937,7 +5957,7 @@
         <v>10</v>
       </c>
       <c r="G135">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H135" s="1">
@@ -5947,7 +5967,7 @@
         <v>250</v>
       </c>
       <c r="K135" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>435.91000000000008</v>
       </c>
     </row>
@@ -5965,7 +5985,7 @@
         <v>16</v>
       </c>
       <c r="G136">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>17.200000000000003</v>
       </c>
       <c r="H136" s="1">
@@ -5975,7 +5995,7 @@
         <v>250</v>
       </c>
       <c r="K136" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>453.11000000000007</v>
       </c>
     </row>
@@ -5993,7 +6013,7 @@
         <v>16</v>
       </c>
       <c r="G137">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="H137" s="1">
@@ -6003,7 +6023,7 @@
         <v>250</v>
       </c>
       <c r="K137" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>471.11000000000007</v>
       </c>
     </row>
@@ -6021,7 +6041,7 @@
         <v>16</v>
       </c>
       <c r="G138">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>25</v>
       </c>
       <c r="H138" s="1">
@@ -6031,7 +6051,7 @@
         <v>250</v>
       </c>
       <c r="K138" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>496.11000000000007</v>
       </c>
     </row>
@@ -6049,7 +6069,7 @@
         <v>10</v>
       </c>
       <c r="G139">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H139" s="1">
@@ -6059,7 +6079,7 @@
         <v>250</v>
       </c>
       <c r="K139" s="6">
-        <f t="shared" ref="K139:K148" si="49">K138+G139</f>
+        <f t="shared" ref="K139:K148" si="51">K138+G139</f>
         <v>476.11000000000007</v>
       </c>
     </row>
@@ -6077,7 +6097,7 @@
         <v>10</v>
       </c>
       <c r="G140">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H140" s="1">
@@ -6087,7 +6107,7 @@
         <v>250</v>
       </c>
       <c r="K140" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>456.11000000000007</v>
       </c>
     </row>
@@ -6105,7 +6125,7 @@
         <v>16</v>
       </c>
       <c r="G141">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>6.6000000000000014</v>
       </c>
       <c r="H141" s="1">
@@ -6115,7 +6135,7 @@
         <v>250</v>
       </c>
       <c r="K141" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>462.71000000000009</v>
       </c>
     </row>
@@ -6133,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="G142">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H142" s="1">
@@ -6143,7 +6163,7 @@
         <v>250</v>
       </c>
       <c r="K142" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>442.71000000000009</v>
       </c>
     </row>
@@ -6161,7 +6181,7 @@
         <v>10</v>
       </c>
       <c r="G143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H143" s="1">
@@ -6171,7 +6191,7 @@
         <v>250</v>
       </c>
       <c r="K143" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>422.71000000000009</v>
       </c>
     </row>
@@ -6189,7 +6209,7 @@
         <v>10</v>
       </c>
       <c r="G144">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H144" s="1">
@@ -6199,7 +6219,7 @@
         <v>250</v>
       </c>
       <c r="K144" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>402.71000000000009</v>
       </c>
     </row>
@@ -6217,7 +6237,7 @@
         <v>16</v>
       </c>
       <c r="G145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>20</v>
       </c>
       <c r="H145" s="1">
@@ -6227,7 +6247,7 @@
         <v>250</v>
       </c>
       <c r="K145" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>422.71000000000009</v>
       </c>
     </row>
@@ -6245,7 +6265,7 @@
         <v>16</v>
       </c>
       <c r="G146">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="H146" s="1">
@@ -6255,7 +6275,7 @@
         <v>250</v>
       </c>
       <c r="K146" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>440.71000000000009</v>
       </c>
     </row>
@@ -6273,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="G147">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H147" s="1">
@@ -6283,7 +6303,7 @@
         <v>250</v>
       </c>
       <c r="K147" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>420.71000000000009</v>
       </c>
     </row>
@@ -6301,7 +6321,7 @@
         <v>16</v>
       </c>
       <c r="G148">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="H148" s="1">
@@ -6311,7 +6331,7 @@
         <v>250</v>
       </c>
       <c r="K148" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>438.71000000000009</v>
       </c>
     </row>
@@ -6329,7 +6349,7 @@
         <v>16</v>
       </c>
       <c r="G149">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>15.399999999999999</v>
       </c>
       <c r="H149" s="1">
@@ -6339,7 +6359,7 @@
         <v>250</v>
       </c>
       <c r="K149" s="6">
-        <f t="shared" ref="K149:K158" si="50">K148+G149</f>
+        <f t="shared" ref="K149:K162" si="52">K148+G149</f>
         <v>454.11000000000007</v>
       </c>
     </row>
@@ -6357,7 +6377,7 @@
         <v>10</v>
       </c>
       <c r="G150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H150" s="1">
@@ -6367,7 +6387,7 @@
         <v>250</v>
       </c>
       <c r="K150" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>434.11000000000007</v>
       </c>
     </row>
@@ -6385,7 +6405,7 @@
         <v>16</v>
       </c>
       <c r="G151">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>14.799999999999997</v>
       </c>
       <c r="H151" s="1">
@@ -6395,7 +6415,7 @@
         <v>250</v>
       </c>
       <c r="K151" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>448.91000000000008</v>
       </c>
     </row>
@@ -6413,7 +6433,7 @@
         <v>10</v>
       </c>
       <c r="G152">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-20</v>
       </c>
       <c r="H152" s="1">
@@ -6423,7 +6443,7 @@
         <v>250</v>
       </c>
       <c r="K152" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>428.91000000000008</v>
       </c>
     </row>
@@ -6441,7 +6461,7 @@
         <v>16</v>
       </c>
       <c r="G153">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>13.199999999999996</v>
       </c>
       <c r="H153" s="1">
@@ -6451,7 +6471,7 @@
         <v>250</v>
       </c>
       <c r="K153" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>442.11000000000007</v>
       </c>
     </row>
@@ -6469,7 +6489,7 @@
         <v>10</v>
       </c>
       <c r="G154">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H154" s="1">
@@ -6479,7 +6499,7 @@
         <v>250</v>
       </c>
       <c r="K154" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>432.11000000000007</v>
       </c>
     </row>
@@ -6497,7 +6517,7 @@
         <v>16</v>
       </c>
       <c r="G155">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.5</v>
       </c>
       <c r="H155" s="1">
@@ -6507,7 +6527,7 @@
         <v>250</v>
       </c>
       <c r="K155" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>441.61000000000007</v>
       </c>
     </row>
@@ -6525,7 +6545,7 @@
         <v>16</v>
       </c>
       <c r="G156">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.5</v>
       </c>
       <c r="H156" s="1">
@@ -6535,7 +6555,7 @@
         <v>250</v>
       </c>
       <c r="K156" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>451.11000000000007</v>
       </c>
     </row>
@@ -6553,7 +6573,7 @@
         <v>10</v>
       </c>
       <c r="G157">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H157" s="1">
@@ -6563,7 +6583,7 @@
         <v>250</v>
       </c>
       <c r="K157" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>441.11000000000007</v>
       </c>
     </row>
@@ -6581,7 +6601,7 @@
         <v>10</v>
       </c>
       <c r="G158">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-10</v>
       </c>
       <c r="H158" s="1">
@@ -6591,8 +6611,120 @@
         <v>250</v>
       </c>
       <c r="K158" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>431.11000000000007</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>115</v>
+      </c>
+      <c r="B159">
+        <v>1.74</v>
+      </c>
+      <c r="C159">
+        <v>20</v>
+      </c>
+      <c r="F159" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="45"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="H159" s="1">
+        <v>45335</v>
+      </c>
+      <c r="J159">
+        <v>250</v>
+      </c>
+      <c r="K159" s="6">
+        <f t="shared" si="52"/>
+        <v>445.91000000000008</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160">
+        <v>2.65</v>
+      </c>
+      <c r="C160">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="45"/>
+        <v>-15</v>
+      </c>
+      <c r="H160" s="1">
+        <v>45335</v>
+      </c>
+      <c r="J160">
+        <v>250</v>
+      </c>
+      <c r="K160" s="6">
+        <f t="shared" si="52"/>
+        <v>430.91000000000008</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>93</v>
+      </c>
+      <c r="B161">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C161">
+        <v>20</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="45"/>
+        <v>-20</v>
+      </c>
+      <c r="H161" s="1">
+        <v>45335</v>
+      </c>
+      <c r="J161">
+        <v>250</v>
+      </c>
+      <c r="K161" s="6">
+        <f t="shared" si="52"/>
+        <v>410.91000000000008</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162">
+        <v>1.76</v>
+      </c>
+      <c r="C162">
+        <v>20</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="45"/>
+        <v>15.200000000000003</v>
+      </c>
+      <c r="H162" s="1">
+        <v>45335</v>
+      </c>
+      <c r="J162">
+        <v>250</v>
+      </c>
+      <c r="K162" s="6">
+        <f t="shared" si="52"/>
+        <v>426.11000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C5E53-5713-4962-8A6F-B84F0BC7650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8145FFA5-3FC3-4970-8C4F-080918481880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="146">
   <si>
     <t>Date</t>
   </si>
@@ -468,10 +468,34 @@
     <t>Pacers Over 238.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue Jackets </t>
-  </si>
-  <si>
     <t>Oilers Over 6.5</t>
+  </si>
+  <si>
+    <t>Bulls Under 222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavaliers -9 </t>
+  </si>
+  <si>
+    <t>Heat ML</t>
+  </si>
+  <si>
+    <t>Blue Jackets ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panthers Under 6 </t>
+  </si>
+  <si>
+    <t>Kraken Over 5.5</t>
+  </si>
+  <si>
+    <t>Panthers Under 6.5</t>
+  </si>
+  <si>
+    <t>Flyers ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stars ML </t>
   </si>
 </sst>
 </file>
@@ -859,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AB162"/>
+  <dimension ref="A1:AB173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,7 +1002,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.70444000000000018</v>
+        <v>0.78836000000000039</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -4038,6 +4062,20 @@
         <f t="shared" si="41"/>
         <v>412.77000000000004</v>
       </c>
+      <c r="O66" s="1">
+        <v>45336</v>
+      </c>
+      <c r="P66" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q66" s="2">
+        <f t="shared" ref="Q66:Q67" si="44">Q65+R66</f>
+        <v>429.30999999999989</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ref="R66:R67" si="45">SUMIF(H65:H189, O66, G65:G189)</f>
+        <v>3.2000000000000028</v>
+      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -4066,6 +4104,20 @@
         <f t="shared" si="41"/>
         <v>420.17</v>
       </c>
+      <c r="O67" s="1">
+        <v>45337</v>
+      </c>
+      <c r="P67" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q67" s="2">
+        <f t="shared" si="44"/>
+        <v>447.08999999999992</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="45"/>
+        <v>17.78</v>
+      </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -4175,7 +4227,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K118" si="44">K70+G71</f>
+        <f t="shared" ref="K71:K118" si="46">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -4203,7 +4255,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>443.41</v>
       </c>
     </row>
@@ -4231,7 +4283,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -4259,7 +4311,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4287,7 +4339,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -4315,7 +4367,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -4343,7 +4395,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>455.21000000000004</v>
       </c>
     </row>
@@ -4371,7 +4423,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>471.21000000000004</v>
       </c>
     </row>
@@ -4399,7 +4451,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>451.21000000000004</v>
       </c>
     </row>
@@ -4427,7 +4479,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4455,7 +4507,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4483,7 +4535,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4511,7 +4563,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>448.51000000000005</v>
       </c>
     </row>
@@ -4539,7 +4591,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>453.01000000000005</v>
       </c>
     </row>
@@ -4567,7 +4619,7 @@
         <v>250</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>433.01000000000005</v>
       </c>
     </row>
@@ -4595,7 +4647,7 @@
         <v>250</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>442.01000000000005</v>
       </c>
     </row>
@@ -4623,7 +4675,7 @@
         <v>250</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>422.01000000000005</v>
       </c>
     </row>
@@ -4651,7 +4703,7 @@
         <v>250</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>438.01000000000005</v>
       </c>
     </row>
@@ -4679,7 +4731,7 @@
         <v>250</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>442.76000000000005</v>
       </c>
     </row>
@@ -4707,7 +4759,7 @@
         <v>250</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>437.76000000000005</v>
       </c>
     </row>
@@ -4735,7 +4787,7 @@
         <v>250</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>432.76000000000005</v>
       </c>
     </row>
@@ -4763,7 +4815,7 @@
         <v>250</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>449.96000000000004</v>
       </c>
     </row>
@@ -4791,7 +4843,7 @@
         <v>250</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>474.96000000000004</v>
       </c>
     </row>
@@ -4819,7 +4871,7 @@
         <v>250</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>479.46000000000004</v>
       </c>
     </row>
@@ -4847,7 +4899,7 @@
         <v>250</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>474.46000000000004</v>
       </c>
     </row>
@@ -4875,7 +4927,7 @@
         <v>250</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>493.46000000000004</v>
       </c>
     </row>
@@ -4903,7 +4955,7 @@
         <v>250</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>473.46000000000004</v>
       </c>
     </row>
@@ -4931,7 +4983,7 @@
         <v>250</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>491.46000000000004</v>
       </c>
     </row>
@@ -4959,7 +5011,7 @@
         <v>250</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>518.46</v>
       </c>
     </row>
@@ -4987,7 +5039,7 @@
         <v>250</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>520.36</v>
       </c>
     </row>
@@ -5015,7 +5067,7 @@
         <v>250</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>544.36</v>
       </c>
     </row>
@@ -5043,7 +5095,7 @@
         <v>250</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>524.36</v>
       </c>
     </row>
@@ -5071,7 +5123,7 @@
         <v>250</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>504.36</v>
       </c>
     </row>
@@ -5099,7 +5151,7 @@
         <v>250</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>520.36</v>
       </c>
     </row>
@@ -5127,7 +5179,7 @@
         <v>250</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>537.56000000000006</v>
       </c>
     </row>
@@ -5145,7 +5197,7 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <f t="shared" ref="G106:G162" si="45">IF(F106="Y",(C106*B106)-C106,-C106)</f>
+        <f t="shared" ref="G106:G173" si="47">IF(F106="Y",(C106*B106)-C106,-C106)</f>
         <v>-20</v>
       </c>
       <c r="H106" s="1">
@@ -5155,7 +5207,7 @@
         <v>250</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>517.56000000000006</v>
       </c>
     </row>
@@ -5183,7 +5235,7 @@
         <v>250</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>497.56000000000006</v>
       </c>
     </row>
@@ -5211,7 +5263,7 @@
         <v>250</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>477.56000000000006</v>
       </c>
     </row>
@@ -5239,7 +5291,7 @@
         <v>250</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>467.56000000000006</v>
       </c>
     </row>
@@ -5267,7 +5319,7 @@
         <v>250</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>476.56000000000006</v>
       </c>
     </row>
@@ -5285,7 +5337,7 @@
         <v>10</v>
       </c>
       <c r="G111">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H111" s="1">
@@ -5295,7 +5347,7 @@
         <v>250</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>456.56000000000006</v>
       </c>
     </row>
@@ -5313,7 +5365,7 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H112" s="1">
@@ -5323,7 +5375,7 @@
         <v>250</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>436.56000000000006</v>
       </c>
     </row>
@@ -5341,7 +5393,7 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H113" s="1">
@@ -5351,7 +5403,7 @@
         <v>250</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>416.56000000000006</v>
       </c>
     </row>
@@ -5369,7 +5421,7 @@
         <v>16</v>
       </c>
       <c r="G114">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>16</v>
       </c>
       <c r="H114" s="1">
@@ -5379,7 +5431,7 @@
         <v>250</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>432.56000000000006</v>
       </c>
     </row>
@@ -5397,7 +5449,7 @@
         <v>16</v>
       </c>
       <c r="G115">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H115" s="1">
@@ -5407,7 +5459,7 @@
         <v>250</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>449.16000000000008</v>
       </c>
     </row>
@@ -5425,7 +5477,7 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H116" s="1">
@@ -5435,7 +5487,7 @@
         <v>250</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>439.16000000000008</v>
       </c>
     </row>
@@ -5453,7 +5505,7 @@
         <v>10</v>
       </c>
       <c r="G117">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H117" s="1">
@@ -5463,7 +5515,7 @@
         <v>250</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>419.16000000000008</v>
       </c>
     </row>
@@ -5481,7 +5533,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9</v>
       </c>
       <c r="H118" s="1">
@@ -5491,7 +5543,7 @@
         <v>250</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>428.16000000000008</v>
       </c>
     </row>
@@ -5509,7 +5561,7 @@
         <v>16</v>
       </c>
       <c r="G119">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>27</v>
       </c>
       <c r="H119" s="1">
@@ -5519,7 +5571,7 @@
         <v>250</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" ref="K119" si="46">K118+G119</f>
+        <f t="shared" ref="K119" si="48">K118+G119</f>
         <v>455.16000000000008</v>
       </c>
     </row>
@@ -5537,7 +5589,7 @@
         <v>16</v>
       </c>
       <c r="G120">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H120" s="1">
@@ -5547,7 +5599,7 @@
         <v>250</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" ref="K120:K121" si="47">K119+G120</f>
+        <f t="shared" ref="K120:K121" si="49">K119+G120</f>
         <v>466.16000000000008</v>
       </c>
     </row>
@@ -5565,7 +5617,7 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H121" s="1">
@@ -5575,7 +5627,7 @@
         <v>250</v>
       </c>
       <c r="K121" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>446.16000000000008</v>
       </c>
     </row>
@@ -5593,7 +5645,7 @@
         <v>10</v>
       </c>
       <c r="G122">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H122" s="1">
@@ -5603,7 +5655,7 @@
         <v>250</v>
       </c>
       <c r="K122" s="6">
-        <f t="shared" ref="K122:K128" si="48">K121+G122</f>
+        <f t="shared" ref="K122:K128" si="50">K121+G122</f>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5621,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="G123">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H123" s="1">
@@ -5631,7 +5683,7 @@
         <v>250</v>
       </c>
       <c r="K123" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5649,7 +5701,7 @@
         <v>16</v>
       </c>
       <c r="G124">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="H124" s="1">
@@ -5659,7 +5711,7 @@
         <v>250</v>
       </c>
       <c r="K124" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>436.16000000000008</v>
       </c>
     </row>
@@ -5677,7 +5729,7 @@
         <v>10</v>
       </c>
       <c r="G125">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H125" s="1">
@@ -5687,7 +5739,7 @@
         <v>250</v>
       </c>
       <c r="K125" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>426.16000000000008</v>
       </c>
     </row>
@@ -5705,7 +5757,7 @@
         <v>16</v>
       </c>
       <c r="G126">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="H126" s="1">
@@ -5715,7 +5767,7 @@
         <v>250</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>432.36000000000007</v>
       </c>
     </row>
@@ -5733,7 +5785,7 @@
         <v>16</v>
       </c>
       <c r="G127">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9</v>
       </c>
       <c r="H127" s="1">
@@ -5743,7 +5795,7 @@
         <v>250</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>441.36000000000007</v>
       </c>
     </row>
@@ -5761,7 +5813,7 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H128" s="1">
@@ -5771,7 +5823,7 @@
         <v>250</v>
       </c>
       <c r="K128" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>431.36000000000007</v>
       </c>
     </row>
@@ -5789,7 +5841,7 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-15</v>
       </c>
       <c r="H129" s="1">
@@ -5799,7 +5851,7 @@
         <v>250</v>
       </c>
       <c r="K129" s="6">
-        <f t="shared" ref="K129:K130" si="49">K128+G129</f>
+        <f t="shared" ref="K129:K130" si="51">K128+G129</f>
         <v>416.36000000000007</v>
       </c>
     </row>
@@ -5817,7 +5869,7 @@
         <v>16</v>
       </c>
       <c r="G130">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>21.75</v>
       </c>
       <c r="H130" s="1">
@@ -5827,7 +5879,7 @@
         <v>250</v>
       </c>
       <c r="K130" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>438.11000000000007</v>
       </c>
     </row>
@@ -5845,7 +5897,7 @@
         <v>10</v>
       </c>
       <c r="G131">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H131" s="1">
@@ -5855,7 +5907,7 @@
         <v>250</v>
       </c>
       <c r="K131" s="6">
-        <f t="shared" ref="K131:K138" si="50">K130+G131</f>
+        <f t="shared" ref="K131:K138" si="52">K130+G131</f>
         <v>428.11000000000007</v>
       </c>
     </row>
@@ -5873,7 +5925,7 @@
         <v>16</v>
       </c>
       <c r="G132">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>19.799999999999997</v>
       </c>
       <c r="H132" s="1">
@@ -5883,7 +5935,7 @@
         <v>250</v>
       </c>
       <c r="K132" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>447.91000000000008</v>
       </c>
     </row>
@@ -5901,7 +5953,7 @@
         <v>10</v>
       </c>
       <c r="G133">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H133" s="1">
@@ -5911,7 +5963,7 @@
         <v>250</v>
       </c>
       <c r="K133" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>437.91000000000008</v>
       </c>
     </row>
@@ -5929,7 +5981,7 @@
         <v>16</v>
       </c>
       <c r="G134">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="H134" s="1">
@@ -5939,7 +5991,7 @@
         <v>250</v>
       </c>
       <c r="K134" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>455.91000000000008</v>
       </c>
     </row>
@@ -5957,7 +6009,7 @@
         <v>10</v>
       </c>
       <c r="G135">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H135" s="1">
@@ -5967,7 +6019,7 @@
         <v>250</v>
       </c>
       <c r="K135" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>435.91000000000008</v>
       </c>
     </row>
@@ -5985,7 +6037,7 @@
         <v>16</v>
       </c>
       <c r="G136">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>17.200000000000003</v>
       </c>
       <c r="H136" s="1">
@@ -5995,7 +6047,7 @@
         <v>250</v>
       </c>
       <c r="K136" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>453.11000000000007</v>
       </c>
     </row>
@@ -6013,7 +6065,7 @@
         <v>16</v>
       </c>
       <c r="G137">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="H137" s="1">
@@ -6023,7 +6075,7 @@
         <v>250</v>
       </c>
       <c r="K137" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>471.11000000000007</v>
       </c>
     </row>
@@ -6041,7 +6093,7 @@
         <v>16</v>
       </c>
       <c r="G138">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="H138" s="1">
@@ -6051,7 +6103,7 @@
         <v>250</v>
       </c>
       <c r="K138" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>496.11000000000007</v>
       </c>
     </row>
@@ -6069,7 +6121,7 @@
         <v>10</v>
       </c>
       <c r="G139">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H139" s="1">
@@ -6079,7 +6131,7 @@
         <v>250</v>
       </c>
       <c r="K139" s="6">
-        <f t="shared" ref="K139:K148" si="51">K138+G139</f>
+        <f t="shared" ref="K139:K148" si="53">K138+G139</f>
         <v>476.11000000000007</v>
       </c>
     </row>
@@ -6097,7 +6149,7 @@
         <v>10</v>
       </c>
       <c r="G140">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H140" s="1">
@@ -6107,7 +6159,7 @@
         <v>250</v>
       </c>
       <c r="K140" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>456.11000000000007</v>
       </c>
     </row>
@@ -6125,7 +6177,7 @@
         <v>16</v>
       </c>
       <c r="G141">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>6.6000000000000014</v>
       </c>
       <c r="H141" s="1">
@@ -6135,7 +6187,7 @@
         <v>250</v>
       </c>
       <c r="K141" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>462.71000000000009</v>
       </c>
     </row>
@@ -6153,7 +6205,7 @@
         <v>10</v>
       </c>
       <c r="G142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H142" s="1">
@@ -6163,7 +6215,7 @@
         <v>250</v>
       </c>
       <c r="K142" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>442.71000000000009</v>
       </c>
     </row>
@@ -6181,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="G143">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H143" s="1">
@@ -6191,7 +6243,7 @@
         <v>250</v>
       </c>
       <c r="K143" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>422.71000000000009</v>
       </c>
     </row>
@@ -6209,7 +6261,7 @@
         <v>10</v>
       </c>
       <c r="G144">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H144" s="1">
@@ -6219,7 +6271,7 @@
         <v>250</v>
       </c>
       <c r="K144" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>402.71000000000009</v>
       </c>
     </row>
@@ -6237,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="G145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>20</v>
       </c>
       <c r="H145" s="1">
@@ -6247,7 +6299,7 @@
         <v>250</v>
       </c>
       <c r="K145" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>422.71000000000009</v>
       </c>
     </row>
@@ -6265,7 +6317,7 @@
         <v>16</v>
       </c>
       <c r="G146">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="H146" s="1">
@@ -6275,7 +6327,7 @@
         <v>250</v>
       </c>
       <c r="K146" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>440.71000000000009</v>
       </c>
     </row>
@@ -6293,7 +6345,7 @@
         <v>10</v>
       </c>
       <c r="G147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H147" s="1">
@@ -6303,7 +6355,7 @@
         <v>250</v>
       </c>
       <c r="K147" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>420.71000000000009</v>
       </c>
     </row>
@@ -6321,7 +6373,7 @@
         <v>16</v>
       </c>
       <c r="G148">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="H148" s="1">
@@ -6331,7 +6383,7 @@
         <v>250</v>
       </c>
       <c r="K148" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>438.71000000000009</v>
       </c>
     </row>
@@ -6349,7 +6401,7 @@
         <v>16</v>
       </c>
       <c r="G149">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>15.399999999999999</v>
       </c>
       <c r="H149" s="1">
@@ -6359,7 +6411,7 @@
         <v>250</v>
       </c>
       <c r="K149" s="6">
-        <f t="shared" ref="K149:K162" si="52">K148+G149</f>
+        <f t="shared" ref="K149:K173" si="54">K148+G149</f>
         <v>454.11000000000007</v>
       </c>
     </row>
@@ -6377,7 +6429,7 @@
         <v>10</v>
       </c>
       <c r="G150">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H150" s="1">
@@ -6387,7 +6439,7 @@
         <v>250</v>
       </c>
       <c r="K150" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>434.11000000000007</v>
       </c>
     </row>
@@ -6405,7 +6457,7 @@
         <v>16</v>
       </c>
       <c r="G151">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>14.799999999999997</v>
       </c>
       <c r="H151" s="1">
@@ -6415,7 +6467,7 @@
         <v>250</v>
       </c>
       <c r="K151" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>448.91000000000008</v>
       </c>
     </row>
@@ -6433,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="G152">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H152" s="1">
@@ -6443,7 +6495,7 @@
         <v>250</v>
       </c>
       <c r="K152" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>428.91000000000008</v>
       </c>
     </row>
@@ -6461,7 +6513,7 @@
         <v>16</v>
       </c>
       <c r="G153">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>13.199999999999996</v>
       </c>
       <c r="H153" s="1">
@@ -6471,7 +6523,7 @@
         <v>250</v>
       </c>
       <c r="K153" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>442.11000000000007</v>
       </c>
     </row>
@@ -6489,7 +6541,7 @@
         <v>10</v>
       </c>
       <c r="G154">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H154" s="1">
@@ -6499,7 +6551,7 @@
         <v>250</v>
       </c>
       <c r="K154" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>432.11000000000007</v>
       </c>
     </row>
@@ -6517,7 +6569,7 @@
         <v>16</v>
       </c>
       <c r="G155">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.5</v>
       </c>
       <c r="H155" s="1">
@@ -6527,7 +6579,7 @@
         <v>250</v>
       </c>
       <c r="K155" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>441.61000000000007</v>
       </c>
     </row>
@@ -6545,7 +6597,7 @@
         <v>16</v>
       </c>
       <c r="G156">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.5</v>
       </c>
       <c r="H156" s="1">
@@ -6555,7 +6607,7 @@
         <v>250</v>
       </c>
       <c r="K156" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>451.11000000000007</v>
       </c>
     </row>
@@ -6573,7 +6625,7 @@
         <v>10</v>
       </c>
       <c r="G157">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H157" s="1">
@@ -6583,7 +6635,7 @@
         <v>250</v>
       </c>
       <c r="K157" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>441.11000000000007</v>
       </c>
     </row>
@@ -6601,7 +6653,7 @@
         <v>10</v>
       </c>
       <c r="G158">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-10</v>
       </c>
       <c r="H158" s="1">
@@ -6611,7 +6663,7 @@
         <v>250</v>
       </c>
       <c r="K158" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>431.11000000000007</v>
       </c>
     </row>
@@ -6629,7 +6681,7 @@
         <v>16</v>
       </c>
       <c r="G159">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>14.799999999999997</v>
       </c>
       <c r="H159" s="1">
@@ -6639,13 +6691,13 @@
         <v>250</v>
       </c>
       <c r="K159" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>445.91000000000008</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B160">
         <v>2.65</v>
@@ -6657,7 +6709,7 @@
         <v>10</v>
       </c>
       <c r="G160">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-15</v>
       </c>
       <c r="H160" s="1">
@@ -6667,7 +6719,7 @@
         <v>250</v>
       </c>
       <c r="K160" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>430.91000000000008</v>
       </c>
     </row>
@@ -6685,7 +6737,7 @@
         <v>10</v>
       </c>
       <c r="G161">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="H161" s="1">
@@ -6695,13 +6747,13 @@
         <v>250</v>
       </c>
       <c r="K161" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>410.91000000000008</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B162">
         <v>1.76</v>
@@ -6713,7 +6765,7 @@
         <v>16</v>
       </c>
       <c r="G162">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>15.200000000000003</v>
       </c>
       <c r="H162" s="1">
@@ -6723,8 +6775,316 @@
         <v>250</v>
       </c>
       <c r="K162" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>426.11000000000007</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163">
+        <v>1.76</v>
+      </c>
+      <c r="C163">
+        <v>20</v>
+      </c>
+      <c r="F163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="47"/>
+        <v>15.200000000000003</v>
+      </c>
+      <c r="H163" s="1">
+        <v>45336</v>
+      </c>
+      <c r="J163">
+        <v>250</v>
+      </c>
+      <c r="K163" s="6">
+        <f t="shared" si="54"/>
+        <v>441.31000000000006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>63</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>20</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="47"/>
+        <v>-20</v>
+      </c>
+      <c r="H164" s="1">
+        <v>45336</v>
+      </c>
+      <c r="J164">
+        <v>250</v>
+      </c>
+      <c r="K164" s="6">
+        <f t="shared" si="54"/>
+        <v>421.31000000000006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165">
+        <v>1.68</v>
+      </c>
+      <c r="C165">
+        <v>20</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="47"/>
+        <v>-20</v>
+      </c>
+      <c r="H165" s="1">
+        <v>45336</v>
+      </c>
+      <c r="J165">
+        <v>250</v>
+      </c>
+      <c r="K165" s="6">
+        <f t="shared" si="54"/>
+        <v>401.31000000000006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>137</v>
+      </c>
+      <c r="B166">
+        <v>1.9</v>
+      </c>
+      <c r="C166">
+        <v>20</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="47"/>
+        <v>18</v>
+      </c>
+      <c r="H166" s="1">
+        <v>45336</v>
+      </c>
+      <c r="J166">
+        <v>250</v>
+      </c>
+      <c r="K166" s="6">
+        <f t="shared" si="54"/>
+        <v>419.31000000000006</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>138</v>
+      </c>
+      <c r="B167">
+        <v>1.9</v>
+      </c>
+      <c r="C167">
+        <v>20</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="47"/>
+        <v>-20</v>
+      </c>
+      <c r="H167" s="1">
+        <v>45336</v>
+      </c>
+      <c r="J167">
+        <v>250</v>
+      </c>
+      <c r="K167" s="6">
+        <f t="shared" si="54"/>
+        <v>399.31000000000006</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>139</v>
+      </c>
+      <c r="B168">
+        <v>2.5</v>
+      </c>
+      <c r="C168">
+        <v>20</v>
+      </c>
+      <c r="F168" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="47"/>
+        <v>30</v>
+      </c>
+      <c r="H168" s="1">
+        <v>45336</v>
+      </c>
+      <c r="J168">
+        <v>250</v>
+      </c>
+      <c r="K168" s="6">
+        <f t="shared" si="54"/>
+        <v>429.31000000000006</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>85</v>
+      </c>
+      <c r="B169">
+        <v>1.68</v>
+      </c>
+      <c r="C169">
+        <v>20</v>
+      </c>
+      <c r="F169" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="47"/>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="H169" s="1">
+        <v>45337</v>
+      </c>
+      <c r="J169">
+        <v>250</v>
+      </c>
+      <c r="K169" s="6">
+        <f t="shared" si="54"/>
+        <v>442.91000000000008</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170">
+        <v>1.9</v>
+      </c>
+      <c r="C170">
+        <v>20</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="47"/>
+        <v>-20</v>
+      </c>
+      <c r="H170" s="1">
+        <v>45337</v>
+      </c>
+      <c r="J170">
+        <v>250</v>
+      </c>
+      <c r="K170" s="6">
+        <f t="shared" si="54"/>
+        <v>422.91000000000008</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>143</v>
+      </c>
+      <c r="B171">
+        <v>1.9</v>
+      </c>
+      <c r="C171">
+        <v>20</v>
+      </c>
+      <c r="F171" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="47"/>
+        <v>18</v>
+      </c>
+      <c r="H171" s="1">
+        <v>45337</v>
+      </c>
+      <c r="J171">
+        <v>250</v>
+      </c>
+      <c r="K171" s="6">
+        <f t="shared" si="54"/>
+        <v>440.91000000000008</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C172">
+        <v>20</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="47"/>
+        <v>-20</v>
+      </c>
+      <c r="H172" s="1">
+        <v>45337</v>
+      </c>
+      <c r="J172">
+        <v>250</v>
+      </c>
+      <c r="K172" s="6">
+        <f t="shared" si="54"/>
+        <v>420.91000000000008</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>145</v>
+      </c>
+      <c r="B173">
+        <v>1.77</v>
+      </c>
+      <c r="C173">
+        <v>34</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="47"/>
+        <v>26.18</v>
+      </c>
+      <c r="H173" s="1">
+        <v>45337</v>
+      </c>
+      <c r="J173">
+        <v>250</v>
+      </c>
+      <c r="K173" s="6">
+        <f t="shared" si="54"/>
+        <v>447.09000000000009</v>
       </c>
     </row>
   </sheetData>
